--- a/IC Test Data.xlsx
+++ b/IC Test Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawilson1999/Library/Mobile Documents/com~apple~CloudDocs/Psychology MA/Second Year (2022-2023)/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawilson1999/Library/Mobile Documents/com~apple~CloudDocs/Psychology MA/Second Year (2022-2023)/Thesis/Thesis Analyses (IC)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B687AB8-BD40-B64B-A389-56A5658506F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB750E0-F719-034D-B63E-F814387E07ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="2" activeTab="12" xr2:uid="{D43C4272-D8B9-9F43-99E3-1EB0B7572171}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="4" activeTab="13" xr2:uid="{D43C4272-D8B9-9F43-99E3-1EB0B7572171}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1 (3-27)" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Individual Diet 2 (4-11)" sheetId="12" r:id="rId11"/>
     <sheet name="Favorite Diet 1 (4-12)" sheetId="13" r:id="rId12"/>
     <sheet name="Favorite Diet 2 (4-13)" sheetId="14" r:id="rId13"/>
+    <sheet name="Data Days 5-7" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="22">
   <si>
     <t>Pre</t>
   </si>
@@ -106,6 +107,15 @@
   <si>
     <t>INSERT DRUG</t>
   </si>
+  <si>
+    <t>Grams</t>
+  </si>
+  <si>
+    <t>Kcals</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -265,11 +275,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -292,7 +366,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1819,7 +1911,6 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
       <c r="G3">
         <v>189.93</v>
       </c>
@@ -1834,7 +1925,6 @@
       <c r="B4">
         <v>223.27</v>
       </c>
-      <c r="C4" s="14"/>
       <c r="H4">
         <v>76.37</v>
       </c>
@@ -1892,15 +1982,10 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>228.63</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
+      <c r="H9">
         <v>84.72</v>
       </c>
     </row>
@@ -1908,15 +1993,10 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>221.54</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
+      <c r="H10">
         <v>76.349999999999994</v>
       </c>
     </row>
@@ -1924,15 +2004,10 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11">
         <v>218.2</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
+      <c r="H11">
         <v>87.26</v>
       </c>
     </row>
@@ -1940,15 +2015,10 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
+      <c r="G12">
         <v>182.89</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12">
         <v>84.14</v>
       </c>
     </row>
@@ -1956,15 +2026,10 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="G13">
         <v>189.3</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13">
         <v>70.63</v>
       </c>
     </row>
@@ -1972,15 +2037,10 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14">
         <v>213.96</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
+      <c r="H14">
         <v>82.38</v>
       </c>
     </row>
@@ -2118,18 +2178,13 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24">
         <v>226.22</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14">
+      <c r="H24">
         <v>84.62</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24">
         <v>0.02</v>
       </c>
     </row>
@@ -2137,18 +2192,13 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25">
         <v>216.62</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14">
+      <c r="H25">
         <v>75.95</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25">
         <v>0</v>
       </c>
     </row>
@@ -2156,18 +2206,13 @@
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26">
         <v>212.74</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14">
+      <c r="H26">
         <v>87.11</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26">
         <v>0.03</v>
       </c>
     </row>
@@ -2175,18 +2220,13 @@
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14">
+      <c r="G27">
         <v>179.61</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27">
         <v>84.13</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27">
         <v>0.42</v>
       </c>
     </row>
@@ -2194,18 +2234,13 @@
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14">
+      <c r="G28">
         <v>186.63</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28">
         <v>70.38</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28">
         <v>0.66</v>
       </c>
     </row>
@@ -2213,18 +2248,13 @@
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29">
         <v>210.9</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14">
+      <c r="H29">
         <v>82.22</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29">
         <v>0</v>
       </c>
     </row>
@@ -2290,7 +2320,6 @@
       <c r="B3">
         <v>230.48</v>
       </c>
-      <c r="C3" s="14"/>
       <c r="H3">
         <v>84.58</v>
       </c>
@@ -2299,7 +2328,6 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14"/>
       <c r="G4">
         <v>204.15</v>
       </c>
@@ -2360,15 +2388,10 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="G9">
         <v>194.91</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9">
         <v>84.4</v>
       </c>
     </row>
@@ -2376,15 +2399,10 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
+      <c r="G10">
         <v>206.71</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10">
         <v>75.62</v>
       </c>
     </row>
@@ -2392,15 +2410,10 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
+      <c r="G11">
         <v>191.12</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11">
         <v>86.86</v>
       </c>
     </row>
@@ -2408,15 +2421,10 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>232.96</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="H12">
         <v>84.11</v>
       </c>
     </row>
@@ -2424,15 +2432,10 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13">
         <v>226.26</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
+      <c r="H13">
         <v>70.260000000000005</v>
       </c>
     </row>
@@ -2440,15 +2443,10 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
+      <c r="G14">
         <v>186.79</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14">
         <v>81.87</v>
       </c>
     </row>
@@ -2586,18 +2584,13 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14">
+      <c r="G24">
         <v>193.49</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24">
         <v>84.29</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24">
         <v>0.51</v>
       </c>
     </row>
@@ -2605,18 +2598,13 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
+      <c r="G25">
         <v>204.69</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25">
         <v>75.319999999999993</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25">
         <v>0.49</v>
       </c>
     </row>
@@ -2624,18 +2612,13 @@
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14">
+      <c r="G26">
         <v>188.84</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26">
         <v>86.77</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26">
         <v>0.38</v>
       </c>
     </row>
@@ -2643,18 +2626,13 @@
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27">
         <v>226.12</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14">
+      <c r="H27">
         <v>83.84</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27">
         <v>0</v>
       </c>
     </row>
@@ -2662,18 +2640,13 @@
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28">
         <v>220.96</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14">
+      <c r="H28">
         <v>69.95</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28">
         <v>0.03</v>
       </c>
     </row>
@@ -2681,18 +2654,13 @@
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14">
+      <c r="G29">
         <v>183.99</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29">
         <v>81.599999999999994</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29">
         <v>0.37</v>
       </c>
     </row>
@@ -2755,7 +2723,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3">
         <v>244.15</v>
       </c>
       <c r="H3">
@@ -2769,7 +2737,6 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14"/>
       <c r="F4">
         <v>270.07</v>
       </c>
@@ -2830,15 +2797,10 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14">
+      <c r="C9">
         <v>242.33</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
+      <c r="H9">
         <v>84.17</v>
       </c>
     </row>
@@ -2846,15 +2808,10 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14">
+      <c r="C10">
         <v>243.8</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
+      <c r="H10">
         <v>75.02</v>
       </c>
     </row>
@@ -2862,15 +2819,10 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14">
+      <c r="C11">
         <v>245.88</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
+      <c r="H11">
         <v>86.64</v>
       </c>
     </row>
@@ -2878,15 +2830,10 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14">
+      <c r="C12">
         <v>249.5</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="H12">
         <v>83.81</v>
       </c>
     </row>
@@ -2894,15 +2841,10 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14">
+      <c r="F13">
         <v>275.5</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
+      <c r="H13">
         <v>92.38</v>
       </c>
     </row>
@@ -2910,15 +2852,10 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14">
+      <c r="C14">
         <v>243.03</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
+      <c r="H14">
         <v>81.569999999999993</v>
       </c>
     </row>
@@ -3056,18 +2993,13 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14">
+      <c r="C24">
         <v>240</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14">
+      <c r="H24">
         <v>83.96</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24">
         <v>0</v>
       </c>
     </row>
@@ -3075,18 +3007,13 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14">
+      <c r="C25">
         <v>236.31</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14">
+      <c r="H25">
         <v>74.849999999999994</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25">
         <v>0</v>
       </c>
     </row>
@@ -3094,18 +3021,13 @@
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14">
+      <c r="C26">
         <v>243.52</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14">
+      <c r="H26">
         <v>86.43</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26">
         <v>0</v>
       </c>
     </row>
@@ -3113,18 +3035,13 @@
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14">
+      <c r="C27">
         <v>246.51</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14">
+      <c r="H27">
         <v>83.82</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27">
         <v>0</v>
       </c>
     </row>
@@ -3132,18 +3049,13 @@
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14">
+      <c r="F28">
         <v>269.70999999999998</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14">
+      <c r="H28">
         <v>92.34</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28">
         <v>0.04</v>
       </c>
     </row>
@@ -3151,18 +3063,13 @@
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14">
+      <c r="C29">
         <v>237.66</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14">
+      <c r="H29">
         <v>81.23</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29">
         <v>0</v>
       </c>
     </row>
@@ -3179,7 +3086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C957198E-678A-B64E-88EF-7F946C16205E}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -3225,7 +3132,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3">
         <v>244.19</v>
       </c>
       <c r="H3">
@@ -3239,7 +3146,6 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14"/>
       <c r="F4">
         <v>270</v>
       </c>
@@ -3300,15 +3206,10 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14">
+      <c r="C9">
         <v>243.37</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
+      <c r="H9">
         <v>83.73</v>
       </c>
     </row>
@@ -3316,15 +3217,10 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14">
+      <c r="C10">
         <v>243.99</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
+      <c r="H10">
         <v>74.41</v>
       </c>
     </row>
@@ -3332,15 +3228,10 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14">
+      <c r="C11">
         <v>245.65</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
+      <c r="H11">
         <v>86.12</v>
       </c>
     </row>
@@ -3348,15 +3239,10 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14">
+      <c r="C12">
         <v>248.9</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="H12">
         <v>83.27</v>
       </c>
     </row>
@@ -3364,15 +3250,10 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14">
+      <c r="F13">
         <v>274.54000000000002</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
+      <c r="H13">
         <v>92.06</v>
       </c>
     </row>
@@ -3380,15 +3261,10 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14">
+      <c r="C14">
         <v>244.5</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
+      <c r="H14">
         <v>81.010000000000005</v>
       </c>
     </row>
@@ -3526,18 +3402,13 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14">
+      <c r="C24">
         <v>237.33</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14">
+      <c r="H24">
         <v>83.6</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24">
         <v>0</v>
       </c>
     </row>
@@ -3545,18 +3416,13 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14">
+      <c r="C25">
         <v>238.71</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14">
+      <c r="H25">
         <v>73.8</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25">
         <v>0</v>
       </c>
     </row>
@@ -3564,18 +3430,13 @@
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14">
+      <c r="C26">
         <v>237.43</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14">
+      <c r="H26">
         <v>85.94</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26">
         <v>0</v>
       </c>
     </row>
@@ -3583,18 +3444,13 @@
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14">
+      <c r="C27">
         <v>236</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14">
+      <c r="H27">
         <v>83</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27">
         <v>0</v>
       </c>
     </row>
@@ -3602,18 +3458,13 @@
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14">
+      <c r="F28">
         <v>271</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14">
+      <c r="H28">
         <v>92.04</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28">
         <v>0.01</v>
       </c>
     </row>
@@ -3621,18 +3472,13 @@
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14">
+      <c r="C29">
         <v>241.75</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14">
+      <c r="H29">
         <v>80.73</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29">
         <v>0</v>
       </c>
     </row>
@@ -3640,6 +3486,2333 @@
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FF1EE7-ECE5-7C48-AF51-6DCF498162E0}">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>0.74000000000000909</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1.960000000000008</v>
+      </c>
+      <c r="D3" s="18">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.37000000000000455</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1.2299999999999613</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1.7900000000000205</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="18">
+        <f>B3*9</f>
+        <v>6.6600000000000819</v>
+      </c>
+      <c r="M3" s="18">
+        <f>C3*8</f>
+        <v>15.680000000000064</v>
+      </c>
+      <c r="N3" s="18">
+        <f>D3*7</f>
+        <v>0.42000000000001592</v>
+      </c>
+      <c r="O3" s="18">
+        <f>E3*6</f>
+        <v>2.2200000000000273</v>
+      </c>
+      <c r="P3" s="18">
+        <f>F3*5</f>
+        <v>6.1499999999998067</v>
+      </c>
+      <c r="Q3" s="18">
+        <f>G3*4</f>
+        <v>7.1600000000000819</v>
+      </c>
+      <c r="R3" s="24">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="S3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2.6799999999999784</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1.5800000000000125</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="I4" s="20">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="18">
+        <f t="shared" ref="L4:L38" si="0">B4*9</f>
+        <v>24.119999999999806</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" ref="M4:M38" si="1">C4*8</f>
+        <v>2.4800000000000182</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" ref="N4:N38" si="2">D4*7</f>
+        <v>0.13999999999987267</v>
+      </c>
+      <c r="O4" s="18">
+        <f t="shared" ref="O4:O38" si="3">E4*6</f>
+        <v>5.999999999994543E-2</v>
+      </c>
+      <c r="P4" s="18">
+        <f t="shared" ref="P4:P38" si="4">F4*5</f>
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" ref="Q4:Q38" si="5">G4*4</f>
+        <v>6.32000000000005</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="S4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4.1500000000000057</v>
+      </c>
+      <c r="D5" s="18">
+        <v>8.0000000000040927E-2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2.9999999999972715E-2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.73000000000001819</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.78999999999999204</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="I5" s="20">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="M5" s="18">
+        <f t="shared" si="1"/>
+        <v>33.200000000000045</v>
+      </c>
+      <c r="N5" s="18">
+        <f t="shared" si="2"/>
+        <v>0.56000000000028649</v>
+      </c>
+      <c r="O5" s="18">
+        <f t="shared" si="3"/>
+        <v>0.17999999999983629</v>
+      </c>
+      <c r="P5" s="18">
+        <f t="shared" si="4"/>
+        <v>3.6500000000000909</v>
+      </c>
+      <c r="Q5" s="18">
+        <f t="shared" si="5"/>
+        <v>3.1599999999999682</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="S5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.6799999999999784</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1.0100000000000193</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.77999999999997272</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1.8300000000000409</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.22999999999998977</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="I6" s="20">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="18">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
+      <c r="M6" s="18">
+        <f t="shared" si="1"/>
+        <v>5.4399999999998272</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="2"/>
+        <v>7.0700000000001353</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="3"/>
+        <v>4.6799999999998363</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="4"/>
+        <v>9.1500000000002046</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="5"/>
+        <v>0.91999999999995907</v>
+      </c>
+      <c r="R6" s="18">
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="S6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2.2400000000000091</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1.4599999999999795</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.62000000000000455</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1.8799999999999955</v>
+      </c>
+      <c r="G7" s="18">
+        <v>-0.16000000000002501</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="1"/>
+        <v>17.920000000000073</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="2"/>
+        <v>10.219999999999857</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="3"/>
+        <v>3.7200000000000273</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="4"/>
+        <v>9.3999999999999773</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.64000000000010004</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="S7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.61000000000001364</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.83000000000001251</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.0999999999999659</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1.8499999999999943</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="I8" s="20">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.62999999999993861</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="1"/>
+        <v>4.8800000000001091</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="2"/>
+        <v>5.8100000000000875</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="3"/>
+        <v>2.8800000000001091</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="4"/>
+        <v>5.4999999999998295</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="5"/>
+        <v>7.3999999999999773</v>
+      </c>
+      <c r="R8" s="18">
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.32999999999998408</v>
+      </c>
+      <c r="C9" s="18">
+        <v>2.1299999999999955</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.64000000000001478</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0.97000000000002728</v>
+      </c>
+      <c r="F9" s="18">
+        <v>2.5099999999999909</v>
+      </c>
+      <c r="G9" s="18">
+        <v>-3.9999999999992042E-2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="shared" si="0"/>
+        <v>2.9699999999998568</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" si="1"/>
+        <v>17.039999999999964</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="2"/>
+        <v>4.4800000000001035</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="3"/>
+        <v>5.8200000000001637</v>
+      </c>
+      <c r="P9" s="18">
+        <f t="shared" si="4"/>
+        <v>12.549999999999955</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.15999999999996817</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="S9" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1.3300000000000125</v>
+      </c>
+      <c r="C10" s="18">
+        <v>3.3400000000000034</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <v>2.0000000000038654E-2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.71999999999997044</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.45999999999999375</v>
+      </c>
+      <c r="I10" s="20">
+        <v>1</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="0"/>
+        <v>11.970000000000113</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="shared" si="1"/>
+        <v>26.720000000000027</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="3"/>
+        <v>0.12000000000023192</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" si="4"/>
+        <v>3.5999999999998522</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" si="5"/>
+        <v>0.96000000000003638</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0.45999999999999375</v>
+      </c>
+      <c r="S10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2.9299999999999784</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1.289999999999992</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.61000000000001364</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="G11" s="18">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.22999999999998977</v>
+      </c>
+      <c r="I11" s="20">
+        <v>1</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="0"/>
+        <v>2.1600000000000819</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="shared" si="1"/>
+        <v>23.439999999999827</v>
+      </c>
+      <c r="N11" s="18">
+        <f t="shared" si="2"/>
+        <v>9.0299999999999443</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="3"/>
+        <v>3.6600000000000819</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="4"/>
+        <v>4.7499999999999432</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="5"/>
+        <v>0.36000000000001364</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0.22999999999998977</v>
+      </c>
+      <c r="S11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2.1200000000000045</v>
+      </c>
+      <c r="D12" s="18">
+        <v>8.0000000000012506E-2</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.6400000000000432</v>
+      </c>
+      <c r="F12" s="18">
+        <v>2.5999999999999659</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.35999999999998522</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="I12" s="20">
+        <v>1</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0800000000000409</v>
+      </c>
+      <c r="M12" s="18">
+        <f t="shared" si="1"/>
+        <v>16.960000000000036</v>
+      </c>
+      <c r="N12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.56000000000008754</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="3"/>
+        <v>3.8400000000002592</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" si="4"/>
+        <v>12.999999999999829</v>
+      </c>
+      <c r="Q12" s="18">
+        <f t="shared" si="5"/>
+        <v>1.4399999999999409</v>
+      </c>
+      <c r="R12" s="18">
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="S12" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1.8300000000000125</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1.0000000000047748E-2</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3.0399999999999636</v>
+      </c>
+      <c r="G13" s="18">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.78999999999999204</v>
+      </c>
+      <c r="I13" s="20">
+        <v>1</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="0"/>
+        <v>20.700000000000102</v>
+      </c>
+      <c r="M13" s="18">
+        <f t="shared" si="1"/>
+        <v>14.6400000000001</v>
+      </c>
+      <c r="N13" s="18">
+        <f t="shared" si="2"/>
+        <v>2.2399999999999523</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="3"/>
+        <v>6.0000000000286491E-2</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="4"/>
+        <v>15.199999999999818</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="5"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="R13" s="18">
+        <v>0.78999999999999204</v>
+      </c>
+      <c r="S13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1.3799999999999955</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.67000000000001592</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.62000000000000455</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.70999999999997954</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.54000000000002046</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="shared" si="1"/>
+        <v>11.039999999999964</v>
+      </c>
+      <c r="N14" s="18">
+        <f t="shared" si="2"/>
+        <v>4.6900000000001114</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" si="3"/>
+        <v>3.7200000000000273</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" si="4"/>
+        <v>3.5499999999998977</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000455</v>
+      </c>
+      <c r="R14" s="18">
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="S14" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="18">
+        <v>2.0200000000000102</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1.3400000000000034</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.41000000000002501</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.6899999999999977</v>
+      </c>
+      <c r="G15" s="18">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="I15" s="20">
+        <v>2</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="0"/>
+        <v>18.180000000000092</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="1"/>
+        <v>10.720000000000027</v>
+      </c>
+      <c r="N15" s="18">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="3"/>
+        <v>2.4600000000001501</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="4"/>
+        <v>8.4499999999999886</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="5"/>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="R15" s="18">
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="S15" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18">
+        <v>2.9899999999999807</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.87000000000000455</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="0"/>
+        <v>26.909999999999826</v>
+      </c>
+      <c r="M16" s="18">
+        <f t="shared" si="1"/>
+        <v>2.1600000000000819</v>
+      </c>
+      <c r="N16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.13999999999987267</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" si="3"/>
+        <v>0.30000000000006821</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" si="4"/>
+        <v>4.3500000000000227</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" si="5"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="S16" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="18">
+        <v>7.9999999999984084E-2</v>
+      </c>
+      <c r="C17" s="18">
+        <v>6.5900000000000034</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="E17" s="18">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.74000000000000909</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0.40999999999999659</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.3399999999999892</v>
+      </c>
+      <c r="I17" s="20">
+        <v>2</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.71999999999985675</v>
+      </c>
+      <c r="M17" s="18">
+        <f t="shared" si="1"/>
+        <v>52.720000000000027</v>
+      </c>
+      <c r="N17" s="18">
+        <f t="shared" si="2"/>
+        <v>3.1499999999999204</v>
+      </c>
+      <c r="O17" s="18">
+        <f t="shared" si="3"/>
+        <v>0.36000000000001364</v>
+      </c>
+      <c r="P17" s="18">
+        <f t="shared" si="4"/>
+        <v>3.7000000000000455</v>
+      </c>
+      <c r="Q17" s="18">
+        <f t="shared" si="5"/>
+        <v>1.6399999999999864</v>
+      </c>
+      <c r="R17" s="18">
+        <v>0.3399999999999892</v>
+      </c>
+      <c r="S17" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1.8799999999999955</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1.0300000000000011</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.62999999999999545</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2.4000000000000341</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1.6899999999999977</v>
+      </c>
+      <c r="I18" s="20">
+        <v>2</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="0"/>
+        <v>16.919999999999959</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="1"/>
+        <v>8.2400000000000091</v>
+      </c>
+      <c r="N18" s="18">
+        <f t="shared" si="2"/>
+        <v>5.25</v>
+      </c>
+      <c r="O18" s="18">
+        <f t="shared" si="3"/>
+        <v>3.7799999999999727</v>
+      </c>
+      <c r="P18" s="18">
+        <f t="shared" si="4"/>
+        <v>12.000000000000171</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="5"/>
+        <v>1.1200000000000045</v>
+      </c>
+      <c r="R18" s="18">
+        <v>1.6899999999999977</v>
+      </c>
+      <c r="S18" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="18">
+        <v>8.0000000000012506E-2</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.22999999999998977</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.34999999999996589</v>
+      </c>
+      <c r="F19" s="18">
+        <v>3.0099999999999909</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.47999999999998977</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="I19" s="20">
+        <v>2</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.72000000000011255</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7999999999999545</v>
+      </c>
+      <c r="N19" s="18">
+        <f t="shared" si="2"/>
+        <v>1.6099999999999284</v>
+      </c>
+      <c r="O19" s="18">
+        <f t="shared" si="3"/>
+        <v>2.0999999999997954</v>
+      </c>
+      <c r="P19" s="18">
+        <f t="shared" si="4"/>
+        <v>15.049999999999955</v>
+      </c>
+      <c r="Q19" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9199999999999591</v>
+      </c>
+      <c r="R19" s="18">
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="S19" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="18">
+        <v>0.14000000000001478</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1.2800000000000011</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1.3400000000000318</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1.539999999999992</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.30999999999998806</v>
+      </c>
+      <c r="I20" s="20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="0"/>
+        <v>1.260000000000133</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" si="1"/>
+        <v>4.5599999999999454</v>
+      </c>
+      <c r="N20" s="18">
+        <f t="shared" si="2"/>
+        <v>8.960000000000008</v>
+      </c>
+      <c r="O20" s="18">
+        <f t="shared" si="3"/>
+        <v>4.8000000000000682</v>
+      </c>
+      <c r="P20" s="18">
+        <f t="shared" si="4"/>
+        <v>6.7000000000001592</v>
+      </c>
+      <c r="Q20" s="18">
+        <f t="shared" si="5"/>
+        <v>6.1599999999999682</v>
+      </c>
+      <c r="R20" s="18">
+        <v>0.30999999999998806</v>
+      </c>
+      <c r="S20" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="18">
+        <v>0.58000000000001251</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1.6100000000000136</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="F21" s="18">
+        <v>3.8199999999999932</v>
+      </c>
+      <c r="G21" s="18">
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="0"/>
+        <v>5.2200000000001125</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" si="1"/>
+        <v>12.880000000000109</v>
+      </c>
+      <c r="N21" s="18">
+        <f t="shared" si="2"/>
+        <v>3.0799999999999841</v>
+      </c>
+      <c r="O21" s="18">
+        <f t="shared" si="3"/>
+        <v>2.8800000000001091</v>
+      </c>
+      <c r="P21" s="18">
+        <f t="shared" si="4"/>
+        <v>19.099999999999966</v>
+      </c>
+      <c r="Q21" s="18">
+        <f t="shared" si="5"/>
+        <v>-3.999999999996362E-2</v>
+      </c>
+      <c r="R21" s="18">
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="S21" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="C22" s="18">
+        <v>2.0600000000000023</v>
+      </c>
+      <c r="D22" s="18">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="E22" s="18">
+        <v>3.999999999996362E-2</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.8199999999999932</v>
+      </c>
+      <c r="G22" s="18">
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.47999999999998977</v>
+      </c>
+      <c r="I22" s="20">
+        <v>2</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="0"/>
+        <v>7.6499999999999488</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="1"/>
+        <v>16.480000000000018</v>
+      </c>
+      <c r="N22" s="18">
+        <f t="shared" si="2"/>
+        <v>6.9999999999936335E-2</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" si="3"/>
+        <v>0.23999999999978172</v>
+      </c>
+      <c r="P22" s="18">
+        <f t="shared" si="4"/>
+        <v>9.0999999999999659</v>
+      </c>
+      <c r="Q22" s="18">
+        <f t="shared" si="5"/>
+        <v>0.15999999999996817</v>
+      </c>
+      <c r="R22" s="18">
+        <v>0.47999999999998977</v>
+      </c>
+      <c r="S22" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="18">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="C23" s="18">
+        <v>5.6200000000000045</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.36000000000001364</v>
+      </c>
+      <c r="F23" s="18">
+        <v>3.17999999999995</v>
+      </c>
+      <c r="G23" s="18">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="I23" s="20">
+        <v>2</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" si="0"/>
+        <v>0.89999999999994884</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="1"/>
+        <v>44.960000000000036</v>
+      </c>
+      <c r="N23" s="18">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000398</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" si="3"/>
+        <v>2.1600000000000819</v>
+      </c>
+      <c r="P23" s="18">
+        <f t="shared" si="4"/>
+        <v>15.89999999999975</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="5"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="R23" s="18">
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="S23" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1.0699999999999932</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2.539999999999992</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1.039999999999992</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1.6899999999999977</v>
+      </c>
+      <c r="G24" s="18">
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="I24" s="20">
+        <v>2</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="0"/>
+        <v>9.6299999999999386</v>
+      </c>
+      <c r="M24" s="18">
+        <f t="shared" si="1"/>
+        <v>20.319999999999936</v>
+      </c>
+      <c r="N24" s="18">
+        <f t="shared" si="2"/>
+        <v>7.2799999999999443</v>
+      </c>
+      <c r="O24" s="18">
+        <f t="shared" si="3"/>
+        <v>1.9199999999999591</v>
+      </c>
+      <c r="P24" s="18">
+        <f t="shared" si="4"/>
+        <v>8.4499999999999886</v>
+      </c>
+      <c r="Q24" s="18">
+        <f t="shared" si="5"/>
+        <v>8.0000000000040927E-2</v>
+      </c>
+      <c r="R24" s="18">
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="S24" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="18">
+        <v>3.3199999999999932</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1.3599999999999852</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="E25" s="18">
+        <v>3.0000000000029559E-2</v>
+      </c>
+      <c r="F25" s="18">
+        <v>3.5400000000000205</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.17000000000001592</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="I25" s="20">
+        <v>2</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="0"/>
+        <v>29.879999999999939</v>
+      </c>
+      <c r="M25" s="18">
+        <f t="shared" si="1"/>
+        <v>10.879999999999882</v>
+      </c>
+      <c r="N25" s="18">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000796</v>
+      </c>
+      <c r="O25" s="18">
+        <f t="shared" si="3"/>
+        <v>0.18000000000017735</v>
+      </c>
+      <c r="P25" s="18">
+        <f t="shared" si="4"/>
+        <v>17.700000000000102</v>
+      </c>
+      <c r="Q25" s="18">
+        <f t="shared" si="5"/>
+        <v>0.68000000000006366</v>
+      </c>
+      <c r="R25" s="18">
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="S25" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="18">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2.539999999999992</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.86999999999997613</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.77000000000003865</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1.5799999999999841</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <v>2</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="0"/>
+        <v>8.9999999999918145E-2</v>
+      </c>
+      <c r="M26" s="18">
+        <f t="shared" si="1"/>
+        <v>20.319999999999936</v>
+      </c>
+      <c r="N26" s="18">
+        <f t="shared" si="2"/>
+        <v>6.0899999999998329</v>
+      </c>
+      <c r="O26" s="18">
+        <f t="shared" si="3"/>
+        <v>4.6200000000002319</v>
+      </c>
+      <c r="P26" s="18">
+        <f t="shared" si="4"/>
+        <v>7.8999999999999204</v>
+      </c>
+      <c r="Q26" s="18">
+        <f t="shared" si="5"/>
+        <v>1.1200000000000045</v>
+      </c>
+      <c r="R26" s="18">
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="18">
+        <v>0.93999999999999773</v>
+      </c>
+      <c r="C27" s="18">
+        <v>1.9699999999999989</v>
+      </c>
+      <c r="D27" s="18">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0.85000000000002274</v>
+      </c>
+      <c r="F27" s="18">
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="G27" s="18">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="I27" s="20">
+        <v>3</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="0"/>
+        <v>8.4599999999999795</v>
+      </c>
+      <c r="M27" s="18">
+        <f t="shared" si="1"/>
+        <v>15.759999999999991</v>
+      </c>
+      <c r="N27" s="18">
+        <f t="shared" si="2"/>
+        <v>6.9999999999936335E-2</v>
+      </c>
+      <c r="O27" s="18">
+        <f t="shared" si="3"/>
+        <v>5.1000000000001364</v>
+      </c>
+      <c r="P27" s="18">
+        <f t="shared" si="4"/>
+        <v>10.500000000000114</v>
+      </c>
+      <c r="Q27" s="18">
+        <f t="shared" si="5"/>
+        <v>0.27999999999997272</v>
+      </c>
+      <c r="R27" s="18">
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="S27" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="18">
+        <v>3.6299999999999955</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+      <c r="D28" s="18">
+        <v>7.9999999999984084E-2</v>
+      </c>
+      <c r="E28" s="18">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0.60000000000002274</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="I28" s="20">
+        <v>3</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="0"/>
+        <v>32.669999999999959</v>
+      </c>
+      <c r="M28" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <f t="shared" si="2"/>
+        <v>0.55999999999988859</v>
+      </c>
+      <c r="O28" s="18">
+        <f t="shared" si="3"/>
+        <v>5.999999999994543E-2</v>
+      </c>
+      <c r="P28" s="18">
+        <f t="shared" si="4"/>
+        <v>3.0000000000001137</v>
+      </c>
+      <c r="Q28" s="18">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R28" s="18">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="S28" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="18">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="C29" s="18">
+        <v>6.0300000000000011</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="E29" s="18">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="I29" s="20">
+        <v>3</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="0"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="M29" s="18">
+        <f t="shared" si="1"/>
+        <v>48.240000000000009</v>
+      </c>
+      <c r="N29" s="18">
+        <f t="shared" si="2"/>
+        <v>2.6599999999999682</v>
+      </c>
+      <c r="O29" s="18">
+        <f t="shared" si="3"/>
+        <v>5.999999999994543E-2</v>
+      </c>
+      <c r="P29" s="18">
+        <f t="shared" si="4"/>
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="Q29" s="18">
+        <f t="shared" si="5"/>
+        <v>3.6000000000000227</v>
+      </c>
+      <c r="R29" s="18">
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="S29" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="18">
+        <v>2.1199999999999761</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0.86000000000001364</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.28999999999999204</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="F30" s="18">
+        <v>2.6700000000000159</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0.26000000000000512</v>
+      </c>
+      <c r="I30" s="20">
+        <v>3</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="0"/>
+        <v>19.079999999999785</v>
+      </c>
+      <c r="M30" s="18">
+        <f t="shared" si="1"/>
+        <v>6.8800000000001091</v>
+      </c>
+      <c r="N30" s="18">
+        <f t="shared" si="2"/>
+        <v>2.0299999999999443</v>
+      </c>
+      <c r="O30" s="18">
+        <f t="shared" si="3"/>
+        <v>1.5599999999999454</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" si="4"/>
+        <v>13.35000000000008</v>
+      </c>
+      <c r="Q30" s="18">
+        <f t="shared" si="5"/>
+        <v>2.0399999999999636</v>
+      </c>
+      <c r="R30" s="18">
+        <v>0.26000000000000512</v>
+      </c>
+      <c r="S30" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="18">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.71999999999999886</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0.15999999999996817</v>
+      </c>
+      <c r="F31" s="18">
+        <v>2.2400000000000091</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0.38000000000000966</v>
+      </c>
+      <c r="I31" s="20">
+        <v>3</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="18">
+        <f t="shared" si="0"/>
+        <v>0.89999999999994884</v>
+      </c>
+      <c r="M31" s="18">
+        <f t="shared" si="1"/>
+        <v>1.5199999999999818</v>
+      </c>
+      <c r="N31" s="18">
+        <f t="shared" si="2"/>
+        <v>5.039999999999992</v>
+      </c>
+      <c r="O31" s="18">
+        <f t="shared" si="3"/>
+        <v>0.95999999999980901</v>
+      </c>
+      <c r="P31" s="18">
+        <f t="shared" si="4"/>
+        <v>11.200000000000045</v>
+      </c>
+      <c r="Q31" s="18">
+        <f t="shared" si="5"/>
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="R31" s="18">
+        <v>0.38000000000000966</v>
+      </c>
+      <c r="S31" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="18">
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="C32" s="18">
+        <v>1.0900000000000034</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1.4699999999999989</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0.10000000000002274</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1.2400000000000091</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1.4099999999999966</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="I32" s="20">
+        <v>3</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="18">
+        <f t="shared" si="0"/>
+        <v>1.3500000000000512</v>
+      </c>
+      <c r="M32" s="18">
+        <f t="shared" si="1"/>
+        <v>8.7200000000000273</v>
+      </c>
+      <c r="N32" s="18">
+        <f t="shared" si="2"/>
+        <v>10.289999999999992</v>
+      </c>
+      <c r="O32" s="18">
+        <f t="shared" si="3"/>
+        <v>0.60000000000013642</v>
+      </c>
+      <c r="P32" s="18">
+        <f t="shared" si="4"/>
+        <v>6.2000000000000455</v>
+      </c>
+      <c r="Q32" s="18">
+        <f t="shared" si="5"/>
+        <v>5.6399999999999864</v>
+      </c>
+      <c r="R32" s="18">
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="S32" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="18">
+        <v>0.11000000000001364</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2.8199999999999932</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.71000000000000796</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0.51999999999998181</v>
+      </c>
+      <c r="F33" s="18">
+        <v>2.0699999999999932</v>
+      </c>
+      <c r="G33" s="18">
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="H33" s="18">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="I33" s="20">
+        <v>3</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99000000000012278</v>
+      </c>
+      <c r="M33" s="18">
+        <f t="shared" si="1"/>
+        <v>22.559999999999945</v>
+      </c>
+      <c r="N33" s="18">
+        <f t="shared" si="2"/>
+        <v>4.9700000000000557</v>
+      </c>
+      <c r="O33" s="18">
+        <f t="shared" si="3"/>
+        <v>3.1199999999998909</v>
+      </c>
+      <c r="P33" s="18">
+        <f t="shared" si="4"/>
+        <v>10.349999999999966</v>
+      </c>
+      <c r="Q33" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.12000000000000455</v>
+      </c>
+      <c r="R33" s="18">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="S33" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="18">
+        <v>0.46000000000000796</v>
+      </c>
+      <c r="C34" s="18">
+        <v>2.3299999999999841</v>
+      </c>
+      <c r="D34" s="18">
+        <v>4.0000000000020464E-2</v>
+      </c>
+      <c r="E34" s="18">
+        <v>-2.0000000000038654E-2</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1.75</v>
+      </c>
+      <c r="G34" s="18">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.26000000000000512</v>
+      </c>
+      <c r="I34" s="20">
+        <v>3</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="18">
+        <f t="shared" si="0"/>
+        <v>4.1400000000000716</v>
+      </c>
+      <c r="M34" s="18">
+        <f t="shared" si="1"/>
+        <v>18.639999999999873</v>
+      </c>
+      <c r="N34" s="18">
+        <f t="shared" si="2"/>
+        <v>0.28000000000014325</v>
+      </c>
+      <c r="O34" s="18">
+        <f t="shared" si="3"/>
+        <v>-0.12000000000023192</v>
+      </c>
+      <c r="P34" s="18">
+        <f t="shared" si="4"/>
+        <v>8.75</v>
+      </c>
+      <c r="Q34" s="18">
+        <f t="shared" si="5"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="R34" s="18">
+        <v>0.26000000000000512</v>
+      </c>
+      <c r="S34" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="18">
+        <v>7.9999999999984084E-2</v>
+      </c>
+      <c r="C35" s="18">
+        <v>5.8400000000000034</v>
+      </c>
+      <c r="D35" s="18">
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1.2900000000000205</v>
+      </c>
+      <c r="G35" s="18">
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0.3399999999999892</v>
+      </c>
+      <c r="I35" s="20">
+        <v>3</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" si="0"/>
+        <v>0.71999999999985675</v>
+      </c>
+      <c r="M35" s="18">
+        <f t="shared" si="1"/>
+        <v>46.720000000000027</v>
+      </c>
+      <c r="N35" s="18">
+        <f t="shared" si="2"/>
+        <v>10.14999999999992</v>
+      </c>
+      <c r="O35" s="18">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000682</v>
+      </c>
+      <c r="P35" s="18">
+        <f t="shared" si="4"/>
+        <v>6.4500000000001023</v>
+      </c>
+      <c r="Q35" s="18">
+        <f t="shared" si="5"/>
+        <v>0.15999999999996817</v>
+      </c>
+      <c r="R35" s="18">
+        <v>0.3399999999999892</v>
+      </c>
+      <c r="S35" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="18">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="C36" s="18">
+        <v>3.0300000000000011</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0.89999999999997726</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="F36" s="18">
+        <v>2.4399999999999977</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0.28999999999999204</v>
+      </c>
+      <c r="H36" s="18">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="I36" s="20">
+        <v>3</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" si="0"/>
+        <v>1.7099999999999795</v>
+      </c>
+      <c r="M36" s="18">
+        <f t="shared" si="1"/>
+        <v>24.240000000000009</v>
+      </c>
+      <c r="N36" s="18">
+        <f t="shared" si="2"/>
+        <v>6.2999999999998408</v>
+      </c>
+      <c r="O36" s="18">
+        <f t="shared" si="3"/>
+        <v>0.77999999999997272</v>
+      </c>
+      <c r="P36" s="18">
+        <f t="shared" si="4"/>
+        <v>12.199999999999989</v>
+      </c>
+      <c r="Q36" s="18">
+        <f t="shared" si="5"/>
+        <v>1.1599999999999682</v>
+      </c>
+      <c r="R36" s="18">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="S36" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="18">
+        <v>3.7900000000000205</v>
+      </c>
+      <c r="C37" s="18">
+        <v>1.1900000000000261</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0.29999999999995453</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="G37" s="18">
+        <v>-8.0000000000012506E-2</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="I37" s="20">
+        <v>3</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="18">
+        <f t="shared" si="0"/>
+        <v>34.110000000000184</v>
+      </c>
+      <c r="M37" s="18">
+        <f t="shared" si="1"/>
+        <v>9.5200000000002092</v>
+      </c>
+      <c r="N37" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="18">
+        <f t="shared" si="3"/>
+        <v>1.7999999999997272</v>
+      </c>
+      <c r="P37" s="18">
+        <f t="shared" si="4"/>
+        <v>8.4999999999999432</v>
+      </c>
+      <c r="Q37" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.32000000000005002</v>
+      </c>
+      <c r="R37" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="S37" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4.0000000000020464E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.7800000000000011</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.49000000000000909</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.68000000000000682</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.68999999999999773</v>
+      </c>
+      <c r="H38" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I38" s="21">
+        <v>3</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36000000000018417</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="1"/>
+        <v>11.599999999999909</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="2"/>
+        <v>12.460000000000008</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9400000000000546</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4000000000000341</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7599999999999909</v>
+      </c>
+      <c r="R38" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S38" s="21">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7134,7 +9307,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:T14"/>
+      <selection activeCell="M1" sqref="M1:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8294,8 +10467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD0F3A6-43A9-6C4C-9DC4-E2BEEB22C8F1}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="43" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:T14"/>
+    <sheetView topLeftCell="F1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9455,8 +11628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8C398D-CD49-8149-9AE3-FB49AF5F8A0B}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:I29"/>
+    <sheetView topLeftCell="C1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10662,7 +12835,7 @@
       <c r="B3">
         <v>226.64</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3">
         <v>242.88</v>
       </c>
       <c r="D3">
@@ -10691,7 +12864,7 @@
       <c r="B4">
         <v>220.2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4">
         <v>244.73</v>
       </c>
       <c r="D4">
@@ -10818,25 +12991,25 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>225.13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9">
         <v>241.49</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9">
         <v>255.25</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9">
         <v>270.16000000000003</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9">
         <v>265.08999999999997</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9">
         <v>190.28</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9">
         <v>85.86</v>
       </c>
     </row>
@@ -10844,25 +13017,25 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>220.01</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10">
         <v>243.62</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10">
         <v>254.7</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10">
         <v>268.67</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10">
         <v>269.45</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10">
         <v>199.78</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10">
         <v>78.02</v>
       </c>
     </row>
@@ -10870,25 +13043,25 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11">
         <v>215.44</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11">
         <v>242.8</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11">
         <v>254.96</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11">
         <v>269.33999999999997</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11">
         <v>272.33</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11">
         <v>187.26</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11">
         <v>88</v>
       </c>
     </row>
@@ -10896,25 +13069,25 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>231.03</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12">
         <v>245.26</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12">
         <v>255.04</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12">
         <v>262.77999999999997</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12">
         <v>267.70999999999998</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12">
         <v>183.79</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12">
         <v>84.24</v>
       </c>
     </row>
@@ -10922,25 +13095,25 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13">
         <v>225.87</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13">
         <v>242.26</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13">
         <v>254.78</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13">
         <v>264.19</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13">
         <v>272.83999999999997</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13">
         <v>190.1</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13">
         <v>72.930000000000007</v>
       </c>
     </row>
@@ -10948,25 +13121,25 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14">
         <v>212.35</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14">
         <v>239.04</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14">
         <v>253.32</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14">
         <v>265.58</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14">
         <v>266.64999999999998</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14">
         <v>184.13</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14">
         <v>83.65</v>
       </c>
     </row>
@@ -11189,28 +13362,28 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24">
         <v>225.09</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24">
         <v>240.43</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24">
         <v>255.26</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24">
         <v>270.11</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24">
         <v>263.57</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24">
         <v>190.16</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24">
         <v>85.68</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24">
         <v>0.05</v>
       </c>
     </row>
@@ -11218,28 +13391,28 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25">
         <v>219.44</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25">
         <v>240.67</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25">
         <v>254.68</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25">
         <v>268.64999999999998</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25">
         <v>268.8</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25">
         <v>199.78</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25">
         <v>77.709999999999994</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25">
         <v>0.01</v>
       </c>
     </row>
@@ -11247,28 +13420,28 @@
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26">
         <v>215.38</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26">
         <v>236.88</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26">
         <v>254.23</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26">
         <v>269.27</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26">
         <v>271.55</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26">
         <v>186.99</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26">
         <v>88.01</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26">
         <v>0.06</v>
       </c>
     </row>
@@ -11276,28 +13449,28 @@
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27">
         <v>230.61</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27">
         <v>242</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27">
         <v>254.77</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27">
         <v>262.3</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27">
         <v>267.27999999999997</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27">
         <v>183.59</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27">
         <v>84.24</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27">
         <v>0.03</v>
       </c>
     </row>
@@ -11305,28 +13478,28 @@
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28">
         <v>224.67</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28">
         <v>242.19</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28">
         <v>254.59</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28">
         <v>264.14</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28">
         <v>271.14</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28">
         <v>190.01</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28">
         <v>72.510000000000005</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28">
         <v>0.02</v>
       </c>
     </row>
@@ -11334,28 +13507,28 @@
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29">
         <v>212.35</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29">
         <v>238.21</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29">
         <v>251.9</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29">
         <v>265.3</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29">
         <v>266.42</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29">
         <v>183.87</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29">
         <v>83.32</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29">
         <v>0.06</v>
       </c>
     </row>
@@ -11421,7 +13594,7 @@
       <c r="B3">
         <v>226.56</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3">
         <v>244.1</v>
       </c>
       <c r="D3">
@@ -11450,7 +13623,7 @@
       <c r="B4">
         <v>222.85</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4">
         <v>244.33</v>
       </c>
       <c r="D4">
@@ -11577,25 +13750,25 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>226.23</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9">
         <v>242</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9">
         <v>254.48</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9">
         <v>270.27</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9">
         <v>268.60000000000002</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9">
         <v>189.67</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9">
         <v>85.47</v>
       </c>
     </row>
@@ -11603,25 +13776,25 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>222.29</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10">
         <v>244.32</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10">
         <v>254.7</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10">
         <v>268.42</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10">
         <v>271.07</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10">
         <v>200.59</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10">
         <v>76.819999999999993</v>
       </c>
     </row>
@@ -11629,25 +13802,25 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11">
         <v>214.23</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11">
         <v>242.93</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11">
         <v>254.49</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11">
         <v>267.31</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11">
         <v>270.26</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11">
         <v>189.39</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11">
         <v>87.63</v>
       </c>
     </row>
@@ -11655,25 +13828,25 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>233.77</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12">
         <v>245.88</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12">
         <v>256.54000000000002</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12">
         <v>263.17</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12">
         <v>267.95999999999998</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12">
         <v>186.11</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12">
         <v>84.21</v>
       </c>
     </row>
@@ -11681,25 +13854,25 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13">
         <v>225.58</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13">
         <v>243.31</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13">
         <v>254.7</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13">
         <v>266.14</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13">
         <v>274.05</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13">
         <v>186.82</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13">
         <v>71.27</v>
       </c>
     </row>
@@ -11707,25 +13880,25 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14">
         <v>212.48</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14">
         <v>245.03</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14">
         <v>252.33</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14">
         <v>267.58</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14">
         <v>269.89</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14">
         <v>187.1</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14">
         <v>82.74</v>
       </c>
     </row>
@@ -11948,28 +14121,28 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24">
         <v>226.18</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24">
         <v>239.92</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24">
         <v>254.46</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24">
         <v>270.11</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24">
         <v>266.66000000000003</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24">
         <v>189.68</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24">
         <v>85.47</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24">
         <v>0.09</v>
       </c>
     </row>
@@ -11977,28 +14150,28 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25">
         <v>220.92</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25">
         <v>239.49</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25">
         <v>254.72</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25">
         <v>268.43</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25">
         <v>270.19</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25">
         <v>200.54</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25">
         <v>76.48</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25">
         <v>0.04</v>
       </c>
     </row>
@@ -12006,28 +14179,28 @@
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26">
         <v>214.2</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26">
         <v>241.35</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26">
         <v>254.47</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26">
         <v>267.22000000000003</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26">
         <v>269.75</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26">
         <v>189.33</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26">
         <v>87.58</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26">
         <v>0.01</v>
       </c>
     </row>
@@ -12035,28 +14208,28 @@
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27">
         <v>233.74</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27">
         <v>244.63</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27">
         <v>256.52999999999997</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27">
         <v>263.16000000000003</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27">
         <v>266.77999999999997</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27">
         <v>186.08</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27">
         <v>84.2</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27">
         <v>0</v>
       </c>
     </row>
@@ -12064,28 +14237,28 @@
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28">
         <v>224.14</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28">
         <v>243.17</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28">
         <v>254.65</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28">
         <v>266.13</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28">
         <v>272.63</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28">
         <v>186.78</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28">
         <v>70.95</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28">
         <v>0.04</v>
       </c>
     </row>
@@ -12093,28 +14266,28 @@
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29">
         <v>212.45</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29">
         <v>243.58</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29">
         <v>249.72</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29">
         <v>267.29000000000002</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29">
         <v>269.76</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29">
         <v>186.5</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29">
         <v>82.68</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>

--- a/IC Test Data.xlsx
+++ b/IC Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawilson1999/Library/Mobile Documents/com~apple~CloudDocs/Psychology MA/Second Year (2022-2023)/Thesis/Thesis Analyses (IC)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB750E0-F719-034D-B63E-F814387E07ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE240484-1BFF-F148-A070-D75A1337C51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="4" activeTab="13" xr2:uid="{D43C4272-D8B9-9F43-99E3-1EB0B7572171}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="6" activeTab="15" xr2:uid="{D43C4272-D8B9-9F43-99E3-1EB0B7572171}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1 (3-27)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <sheet name="Individual Diet 2 (4-11)" sheetId="12" r:id="rId11"/>
     <sheet name="Favorite Diet 1 (4-12)" sheetId="13" r:id="rId12"/>
     <sheet name="Favorite Diet 2 (4-13)" sheetId="14" r:id="rId13"/>
-    <sheet name="Data Days 5-7" sheetId="15" r:id="rId14"/>
+    <sheet name="Data Part 1 (Days 5-7)" sheetId="15" r:id="rId14"/>
+    <sheet name="Data Part 2 (Injections 1+2)" sheetId="16" r:id="rId15"/>
+    <sheet name="Data Part 3 (Individual diets)" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="33">
   <si>
     <t>Pre</t>
   </si>
@@ -116,12 +118,45 @@
   <si>
     <t>Day</t>
   </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>VEH</t>
+  </si>
+  <si>
+    <t>NAL</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Favorite Diet Intake VEH</t>
+  </si>
+  <si>
+    <t>Favorite Diet Intake NAL</t>
+  </si>
+  <si>
+    <t>Favorite Blend Diet</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Diet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,16 +164,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -339,11 +387,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -354,6 +415,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,6 +449,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,26 +788,26 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="M1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1461,17 +1541,17 @@
     </row>
     <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -1863,27 +1943,37 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080EB81E-9E9B-3B4B-A856-09D57FACE7EB}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection activeCell="S12" sqref="S12:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="5">
         <v>0</v>
@@ -1906,8 +1996,33 @@
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M2" s="6"/>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1917,8 +2032,42 @@
       <c r="H3">
         <v>85.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>B3-B18</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:S3" si="0">C3-C18</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>1.9099999999999966</v>
+      </c>
+      <c r="T3">
+        <f>H3-H18</f>
+        <v>0.68000000000000682</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2077,42 @@
       <c r="H4">
         <v>76.37</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4" si="1">B4-B19</f>
+        <v>2.4099999999999966</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O14" si="2">C4-C19</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P14" si="3">D4-D19</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q14" si="4">E4-E19</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R14" si="5">F4-F19</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S14" si="6">G4-G19</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T14" si="7">H4-H19</f>
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1939,8 +2122,42 @@
       <c r="H5">
         <v>87.44</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f>B5-B20</f>
+        <v>1.960000000000008</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1950,8 +2167,42 @@
       <c r="H6">
         <v>84.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f>B6-B21</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>3.2000000000000171</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1961,8 +2212,42 @@
       <c r="H7">
         <v>70.849999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f>B7-B22</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>1.0300000000000011</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1977,8 +2262,42 @@
       <c r="H8" s="1">
         <v>82.56</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f>B8-B23</f>
+        <v>1.7699999999999818</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>0.18000000000000682</v>
+      </c>
+      <c r="U8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1988,8 +2307,42 @@
       <c r="H9">
         <v>84.72</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <f>B9-B24</f>
+        <v>2.4099999999999966</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1999,8 +2352,42 @@
       <c r="H10">
         <v>76.349999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f>B10-B25</f>
+        <v>4.9199999999999875</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="U10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2010,8 +2397,42 @@
       <c r="H11">
         <v>87.26</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <f>B11-B26</f>
+        <v>5.4599999999999795</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="U11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2021,8 +2442,42 @@
       <c r="H12">
         <v>84.14</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <f>B12-B27</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>3.2799999999999727</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="7"/>
+        <v>1.0000000000005116E-2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2032,8 +2487,42 @@
       <c r="H13">
         <v>70.63</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <f>B13-B28</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>2.6700000000000159</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2043,20 +2532,54 @@
       <c r="H14">
         <v>82.38</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="M14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <f>B14-B29</f>
+        <v>3.0600000000000023</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="U14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -2259,9 +2782,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2269,27 +2793,37 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22D59F0-93CE-2F44-993A-F032BB37B4B7}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I29"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="5">
         <v>0</v>
@@ -2312,8 +2846,33 @@
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M2" s="6"/>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2323,8 +2882,42 @@
       <c r="H3">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>B3-B18</f>
+        <v>4.6099999999999852</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:T14" si="0">C3-C18</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>H3-H18</f>
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2927,42 @@
       <c r="H4">
         <v>75.930000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N14" si="1">B4-B19</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1.039999999999992</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2345,8 +2972,42 @@
       <c r="H5">
         <v>87.07</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>1.5699999999999932</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.20999999999999375</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2356,8 +3017,42 @@
       <c r="H6">
         <v>84.11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>4.6500000000000057</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2367,8 +3062,42 @@
       <c r="H7">
         <v>70.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>1.4299999999999784</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2383,8 +3112,42 @@
       <c r="H8" s="1">
         <v>82.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>3.0300000000000011</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2394,8 +3157,42 @@
       <c r="H9">
         <v>84.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>1.4199999999999875</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2405,8 +3202,42 @@
       <c r="H10">
         <v>75.62</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>2.0200000000000102</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2416,8 +3247,42 @@
       <c r="H11">
         <v>86.86</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>2.2800000000000011</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2427,8 +3292,42 @@
       <c r="H12">
         <v>84.11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>6.8400000000000034</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999602</v>
+      </c>
+      <c r="U12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2438,8 +3337,42 @@
       <c r="H13">
         <v>70.260000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999829</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2449,20 +3382,54 @@
       <c r="H14">
         <v>81.87</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="M14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>2.7999999999999829</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -2665,9 +3632,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2675,27 +3643,37 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3883C4A2-2191-6F43-A6B2-0445A757ECA6}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="O11" sqref="O11:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="34"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="5">
         <v>0</v>
@@ -2718,8 +3696,33 @@
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2" s="28"/>
+      <c r="N2" s="29">
+        <v>0</v>
+      </c>
+      <c r="O2" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="29">
+        <v>1</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2732,8 +3735,42 @@
       <c r="K3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="27">
+        <f>B3-B18</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="27">
+        <f t="shared" ref="O3:T3" si="0">C3-C18</f>
+        <v>3.4000000000000057</v>
+      </c>
+      <c r="P3" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="27">
+        <f t="shared" si="0"/>
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2743,8 +3780,42 @@
       <c r="H4">
         <v>75.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="27">
+        <f t="shared" ref="N4:N14" si="1">B4-B19</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="27">
+        <f t="shared" ref="O4:O14" si="2">C4-C19</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <f t="shared" ref="P4:P14" si="3">D4-D19</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="27">
+        <f t="shared" ref="Q4:Q14" si="4">E4-E19</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="27">
+        <f t="shared" ref="R4:R14" si="5">F4-F19</f>
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="S4" s="27">
+        <f t="shared" ref="S4:S14" si="6">G4-G19</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="27">
+        <f t="shared" ref="T4:T14" si="7">H4-H19</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2754,8 +3825,42 @@
       <c r="H5">
         <v>86.73</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="27">
+        <f t="shared" si="2"/>
+        <v>2.4199999999999875</v>
+      </c>
+      <c r="P5" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="27">
+        <f t="shared" si="7"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2765,8 +3870,42 @@
       <c r="H6">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="27">
+        <f t="shared" si="5"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="S6" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="27">
+        <f t="shared" si="7"/>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2776,8 +3915,42 @@
       <c r="H7">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <f t="shared" si="5"/>
+        <v>2.0699999999999932</v>
+      </c>
+      <c r="S7" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="27">
+        <f t="shared" si="7"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="U7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2792,8 +3965,42 @@
       <c r="H8" s="1">
         <v>81.56</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="27">
+        <f t="shared" si="5"/>
+        <v>3.0600000000000023</v>
+      </c>
+      <c r="S8" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="27">
+        <f t="shared" si="7"/>
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2803,8 +4010,42 @@
       <c r="H9">
         <v>84.17</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="27">
+        <f t="shared" si="2"/>
+        <v>2.3300000000000125</v>
+      </c>
+      <c r="P9" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="27">
+        <f t="shared" si="7"/>
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2814,8 +4055,42 @@
       <c r="H10">
         <v>75.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="27">
+        <f t="shared" si="2"/>
+        <v>7.4900000000000091</v>
+      </c>
+      <c r="P10" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="27">
+        <f t="shared" si="7"/>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="U10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2825,8 +4100,42 @@
       <c r="H11">
         <v>86.64</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="27">
+        <f t="shared" si="2"/>
+        <v>2.3599999999999852</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="27">
+        <f t="shared" si="7"/>
+        <v>0.20999999999999375</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2836,8 +4145,42 @@
       <c r="H12">
         <v>83.81</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="27">
+        <f t="shared" si="2"/>
+        <v>2.9900000000000091</v>
+      </c>
+      <c r="P12" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="27">
+        <f t="shared" si="7"/>
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2847,8 +4190,42 @@
       <c r="H13">
         <v>92.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="27">
+        <f t="shared" si="5"/>
+        <v>5.7900000000000205</v>
+      </c>
+      <c r="S13" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="27">
+        <f t="shared" si="7"/>
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2858,20 +4235,54 @@
       <c r="H14">
         <v>81.569999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="M14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="27">
+        <f t="shared" si="2"/>
+        <v>5.3700000000000045</v>
+      </c>
+      <c r="P14" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="27">
+        <f t="shared" si="7"/>
+        <v>0.3399999999999892</v>
+      </c>
+      <c r="U14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -3074,9 +4485,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3084,27 +4496,37 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C957198E-678A-B64E-88EF-7F946C16205E}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="34"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="5">
         <v>0</v>
@@ -3127,8 +4549,33 @@
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2" s="28"/>
+      <c r="N2" s="29">
+        <v>0</v>
+      </c>
+      <c r="O2" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="29">
+        <v>1</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3141,8 +4588,42 @@
       <c r="K3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="27">
+        <f>B3-B18</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="27">
+        <f>C3-C18</f>
+        <v>2.25</v>
+      </c>
+      <c r="P3" s="27">
+        <f t="shared" ref="O3:T14" si="0">D3-D18</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="27">
+        <f t="shared" si="0"/>
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3152,8 +4633,42 @@
       <c r="H4">
         <v>74.83</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="27">
+        <f t="shared" ref="N4:N14" si="1">B4-B19</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="27">
+        <f t="shared" si="0"/>
+        <v>2.5199999999999818</v>
+      </c>
+      <c r="S4" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="27">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3163,8 +4678,42 @@
       <c r="H5">
         <v>86.37</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="27">
+        <f t="shared" si="0"/>
+        <v>6.3199999999999932</v>
+      </c>
+      <c r="P5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="27">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3174,8 +4723,42 @@
       <c r="H6">
         <v>83.77</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="27">
+        <f t="shared" si="0"/>
+        <v>4.6500000000000341</v>
+      </c>
+      <c r="S6" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3185,8 +4768,42 @@
       <c r="H7">
         <v>92.28</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <f t="shared" si="0"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="S7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3201,8 +4818,42 @@
       <c r="H8" s="1">
         <v>81.209999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="S8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3212,8 +4863,42 @@
       <c r="H9">
         <v>83.73</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="27">
+        <f t="shared" si="0"/>
+        <v>6.039999999999992</v>
+      </c>
+      <c r="P9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="27">
+        <f t="shared" si="0"/>
+        <v>0.13000000000000966</v>
+      </c>
+      <c r="U9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3223,8 +4908,42 @@
       <c r="H10">
         <v>74.41</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="27">
+        <f t="shared" si="0"/>
+        <v>5.2800000000000011</v>
+      </c>
+      <c r="P10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.60999999999999943</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3234,8 +4953,42 @@
       <c r="H11">
         <v>86.12</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="27">
+        <f t="shared" si="0"/>
+        <v>8.2199999999999989</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000682</v>
+      </c>
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3245,8 +4998,42 @@
       <c r="H12">
         <v>83.27</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="27">
+        <f t="shared" si="0"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="P12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999602</v>
+      </c>
+      <c r="U12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3256,8 +5043,42 @@
       <c r="H13">
         <v>92.06</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="27">
+        <f t="shared" si="0"/>
+        <v>3.5400000000000205</v>
+      </c>
+      <c r="S13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="27">
+        <f t="shared" si="0"/>
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3267,20 +5088,54 @@
       <c r="H14">
         <v>81.010000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="M14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="27">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="P14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="U14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -3483,9 +5338,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3495,35 +5351,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FF1EE7-ECE5-7C48-AF51-6DCF498162E0}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="22" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="K1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
@@ -3570,7 +5426,7 @@
       <c r="Q2" s="7">
         <v>1</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="7" t="s">
@@ -3578,2177 +5434,2177 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>0.74000000000000909</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="19">
         <v>1.960000000000008</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="19">
         <v>0.37000000000000455</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="19">
         <v>1.2299999999999613</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="19">
         <v>1.7900000000000205</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="19">
         <v>0.12000000000000455</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="21">
         <v>1</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="19">
         <f>B3*9</f>
         <v>6.6600000000000819</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="19">
         <f>C3*8</f>
         <v>15.680000000000064</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="19">
         <f>D3*7</f>
         <v>0.42000000000001592</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="19">
         <f>E3*6</f>
         <v>2.2200000000000273</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="19">
         <f>F3*5</f>
         <v>6.1499999999998067</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="19">
         <f>G3*4</f>
         <v>7.1600000000000819</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="25">
         <v>0.12000000000000455</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>2.6799999999999784</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="19">
         <v>0.31000000000000227</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="19">
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="19">
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="19">
         <v>0.31000000000000227</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="19">
         <v>1.5800000000000125</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="19">
         <v>0.37999999999999545</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="21">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="19">
         <f t="shared" ref="L4:L38" si="0">B4*9</f>
         <v>24.119999999999806</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="19">
         <f t="shared" ref="M4:M38" si="1">C4*8</f>
         <v>2.4800000000000182</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="19">
         <f t="shared" ref="N4:N38" si="2">D4*7</f>
         <v>0.13999999999987267</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="19">
         <f t="shared" ref="O4:O38" si="3">E4*6</f>
         <v>5.999999999994543E-2</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="19">
         <f t="shared" ref="P4:P38" si="4">F4*5</f>
         <v>1.5500000000000114</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="19">
         <f t="shared" ref="Q4:Q38" si="5">G4*4</f>
         <v>6.32000000000005</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="19">
         <v>0.37999999999999545</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>4.1500000000000057</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="19">
         <v>8.0000000000040927E-2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="19">
         <v>2.9999999999972715E-2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="19">
         <v>0.73000000000001819</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="19">
         <v>0.78999999999999204</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="19">
         <v>0.31000000000000227</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="21">
         <v>1</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="19">
         <f t="shared" si="0"/>
         <v>0.27000000000001023</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="19">
         <f t="shared" si="1"/>
         <v>33.200000000000045</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="19">
         <f t="shared" si="2"/>
         <v>0.56000000000028649</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="19">
         <f t="shared" si="3"/>
         <v>0.17999999999983629</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="19">
         <f t="shared" si="4"/>
         <v>3.6500000000000909</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="19">
         <f t="shared" si="5"/>
         <v>3.1599999999999682</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="19">
         <v>0.31000000000000227</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>2.25</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="19">
         <v>0.6799999999999784</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="19">
         <v>1.0100000000000193</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="19">
         <v>0.77999999999997272</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="19">
         <v>1.8300000000000409</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="19">
         <v>0.22999999999998977</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="19">
         <v>0.39999999999999147</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="21">
         <v>1</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="19">
         <f t="shared" si="0"/>
         <v>20.25</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="19">
         <f t="shared" si="1"/>
         <v>5.4399999999998272</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="19">
         <f t="shared" si="2"/>
         <v>7.0700000000001353</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="19">
         <f t="shared" si="3"/>
         <v>4.6799999999998363</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="19">
         <f t="shared" si="4"/>
         <v>9.1500000000002046</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="19">
         <f t="shared" si="5"/>
         <v>0.91999999999995907</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="19">
         <v>0.39999999999999147</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="19">
         <v>2.2400000000000091</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="19">
         <v>1.4599999999999795</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="19">
         <v>0.62000000000000455</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="19">
         <v>1.8799999999999955</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="19">
         <v>-0.16000000000002501</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="19">
         <v>0.21999999999999886</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="21">
         <v>1</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="19">
         <f t="shared" si="0"/>
         <v>0.27000000000001023</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="19">
         <f t="shared" si="1"/>
         <v>17.920000000000073</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="19">
         <f t="shared" si="2"/>
         <v>10.219999999999857</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="19">
         <f t="shared" si="3"/>
         <v>3.7200000000000273</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="19">
         <f t="shared" si="4"/>
         <v>9.3999999999999773</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="19">
         <f t="shared" si="5"/>
         <v>-0.64000000000010004</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="19">
         <v>0.21999999999999886</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>6.9999999999993179E-2</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="19">
         <v>0.61000000000001364</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="19">
         <v>0.83000000000001251</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="19">
         <v>0.48000000000001819</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="19">
         <v>1.0999999999999659</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="19">
         <v>1.8499999999999943</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="19">
         <v>0.42000000000000171</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="21">
         <v>1</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="19">
         <f t="shared" si="0"/>
         <v>0.62999999999993861</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="19">
         <f t="shared" si="1"/>
         <v>4.8800000000001091</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="19">
         <f t="shared" si="2"/>
         <v>5.8100000000000875</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="19">
         <f t="shared" si="3"/>
         <v>2.8800000000001091</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="19">
         <f t="shared" si="4"/>
         <v>5.4999999999998295</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="19">
         <f t="shared" si="5"/>
         <v>7.3999999999999773</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="19">
         <v>0.42000000000000171</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <v>0.32999999999998408</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="19">
         <v>2.1299999999999955</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="19">
         <v>0.64000000000001478</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="19">
         <v>0.97000000000002728</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="19">
         <v>2.5099999999999909</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="19">
         <v>-3.9999999999992042E-2</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="19">
         <v>0.15999999999999659</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="21">
         <v>1</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="19">
         <f t="shared" si="0"/>
         <v>2.9699999999998568</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="19">
         <f t="shared" si="1"/>
         <v>17.039999999999964</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="19">
         <f t="shared" si="2"/>
         <v>4.4800000000001035</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="19">
         <f t="shared" si="3"/>
         <v>5.8200000000001637</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="19">
         <f t="shared" si="4"/>
         <v>12.549999999999955</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="19">
         <f t="shared" si="5"/>
         <v>-0.15999999999996817</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="19">
         <v>0.15999999999999659</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <v>1.3300000000000125</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="19">
         <v>3.3400000000000034</v>
       </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
         <v>2.0000000000038654E-2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="19">
         <v>0.71999999999997044</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="19">
         <v>0.24000000000000909</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="19">
         <v>0.45999999999999375</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="21">
         <v>1</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="19">
         <f t="shared" si="0"/>
         <v>11.970000000000113</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="19">
         <f t="shared" si="1"/>
         <v>26.720000000000027</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="19">
         <f t="shared" si="3"/>
         <v>0.12000000000023192</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="19">
         <f t="shared" si="4"/>
         <v>3.5999999999998522</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="19">
         <f t="shared" si="5"/>
         <v>0.96000000000003638</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="19">
         <v>0.45999999999999375</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>0.24000000000000909</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="19">
         <v>2.9299999999999784</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="19">
         <v>1.289999999999992</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="19">
         <v>0.61000000000001364</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="19">
         <v>0.94999999999998863</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="19">
         <v>9.0000000000003411E-2</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="19">
         <v>0.22999999999998977</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="21">
         <v>1</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="19">
         <f t="shared" si="0"/>
         <v>2.1600000000000819</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="19">
         <f t="shared" si="1"/>
         <v>23.439999999999827</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="19">
         <f t="shared" si="2"/>
         <v>9.0299999999999443</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="19">
         <f t="shared" si="3"/>
         <v>3.6600000000000819</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="19">
         <f t="shared" si="4"/>
         <v>4.7499999999999432</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="19">
         <f t="shared" si="5"/>
         <v>0.36000000000001364</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="19">
         <v>0.22999999999998977</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>0.12000000000000455</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="19">
         <v>2.1200000000000045</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="19">
         <v>8.0000000000012506E-2</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="19">
         <v>0.6400000000000432</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="19">
         <v>2.5999999999999659</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="19">
         <v>0.35999999999998522</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="19">
         <v>0.30000000000001137</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="21">
         <v>1</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="19">
         <f t="shared" si="0"/>
         <v>1.0800000000000409</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="19">
         <f t="shared" si="1"/>
         <v>16.960000000000036</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="19">
         <f t="shared" si="2"/>
         <v>0.56000000000008754</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="19">
         <f t="shared" si="3"/>
         <v>3.8400000000002592</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="19">
         <f t="shared" si="4"/>
         <v>12.999999999999829</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="19">
         <f t="shared" si="5"/>
         <v>1.4399999999999409</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="19">
         <v>0.30000000000001137</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>2.3000000000000114</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="19">
         <v>1.8300000000000125</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="19">
         <v>0.31999999999999318</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="19">
         <v>1.0000000000047748E-2</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="19">
         <v>3.0399999999999636</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="19">
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="19">
         <v>0.78999999999999204</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="21">
         <v>1</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="19">
         <f t="shared" si="0"/>
         <v>20.700000000000102</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="19">
         <f t="shared" si="1"/>
         <v>14.6400000000001</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="19">
         <f t="shared" si="2"/>
         <v>2.2399999999999523</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="19">
         <f t="shared" si="3"/>
         <v>6.0000000000286491E-2</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="19">
         <f t="shared" si="4"/>
         <v>15.199999999999818</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="19">
         <f t="shared" si="5"/>
         <v>0.12000000000000455</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="19">
         <v>0.78999999999999204</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="19">
         <v>1.3799999999999955</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="19">
         <v>0.67000000000001592</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="19">
         <v>0.62000000000000455</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="19">
         <v>0.70999999999997954</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="19">
         <v>0.55000000000001137</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="19">
         <v>0.56000000000000227</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="21">
         <v>1</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="19">
         <f t="shared" si="0"/>
         <v>0.54000000000002046</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="19">
         <f t="shared" si="1"/>
         <v>11.039999999999964</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="19">
         <f t="shared" si="2"/>
         <v>4.6900000000001114</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="19">
         <f t="shared" si="3"/>
         <v>3.7200000000000273</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="19">
         <f t="shared" si="4"/>
         <v>3.5499999999998977</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="19">
         <f t="shared" si="5"/>
         <v>2.2000000000000455</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="19">
         <v>0.56000000000000227</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>2.0200000000000102</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="19">
         <v>1.3400000000000034</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="19">
         <v>0.25</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="19">
         <v>0.41000000000002501</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="19">
         <v>1.6899999999999977</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="19">
         <v>5.0000000000011369E-2</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="19">
         <v>1.0000000000005116E-2</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="21">
         <v>2</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="19">
         <f t="shared" si="0"/>
         <v>18.180000000000092</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="19">
         <f t="shared" si="1"/>
         <v>10.720000000000027</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="19">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="19">
         <f t="shared" si="3"/>
         <v>2.4600000000001501</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="19">
         <f t="shared" si="4"/>
         <v>8.4499999999999886</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="19">
         <f t="shared" si="5"/>
         <v>0.20000000000004547</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="19">
         <v>1.0000000000005116E-2</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <v>2.9899999999999807</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="19">
         <v>0.27000000000001023</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="19">
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="19">
         <v>5.0000000000011369E-2</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>0.87000000000000455</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>0.65000000000000568</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="19">
         <v>0.31000000000000227</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="21">
         <v>2</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="19">
         <f t="shared" si="0"/>
         <v>26.909999999999826</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="19">
         <f t="shared" si="1"/>
         <v>2.1600000000000819</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="19">
         <f t="shared" si="2"/>
         <v>0.13999999999987267</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="19">
         <f t="shared" si="3"/>
         <v>0.30000000000006821</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="19">
         <f t="shared" si="4"/>
         <v>4.3500000000000227</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="19">
         <f t="shared" si="5"/>
         <v>2.6000000000000227</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="19">
         <v>0.31000000000000227</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <v>7.9999999999984084E-2</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="19">
         <v>6.5900000000000034</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="19">
         <v>0.44999999999998863</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="19">
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>0.74000000000000909</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>0.40999999999999659</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="19">
         <v>0.3399999999999892</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="21">
         <v>2</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="19">
         <f t="shared" si="0"/>
         <v>0.71999999999985675</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="19">
         <f t="shared" si="1"/>
         <v>52.720000000000027</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="19">
         <f t="shared" si="2"/>
         <v>3.1499999999999204</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="19">
         <f t="shared" si="3"/>
         <v>0.36000000000001364</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="19">
         <f t="shared" si="4"/>
         <v>3.7000000000000455</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="19">
         <f t="shared" si="5"/>
         <v>1.6399999999999864</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="19">
         <v>0.3399999999999892</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>1.8799999999999955</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="19">
         <v>1.0300000000000011</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="19">
         <v>0.75</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="19">
         <v>0.62999999999999545</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>2.4000000000000341</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>0.28000000000000114</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="19">
         <v>1.6899999999999977</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="21">
         <v>2</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="19">
         <f t="shared" si="0"/>
         <v>16.919999999999959</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="19">
         <f t="shared" si="1"/>
         <v>8.2400000000000091</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="19">
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="19">
         <f t="shared" si="3"/>
         <v>3.7799999999999727</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="19">
         <f t="shared" si="4"/>
         <v>12.000000000000171</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="19">
         <f t="shared" si="5"/>
         <v>1.1200000000000045</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="19">
         <v>1.6899999999999977</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="19">
         <v>8.0000000000012506E-2</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="19">
         <v>0.84999999999999432</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="19">
         <v>0.22999999999998977</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="19">
         <v>0.34999999999996589</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>3.0099999999999909</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>0.47999999999998977</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="19">
         <v>0.46999999999999886</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="21">
         <v>2</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="19">
         <f t="shared" si="0"/>
         <v>0.72000000000011255</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="19">
         <f t="shared" si="1"/>
         <v>6.7999999999999545</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="19">
         <f t="shared" si="2"/>
         <v>1.6099999999999284</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="19">
         <f t="shared" si="3"/>
         <v>2.0999999999997954</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="19">
         <f t="shared" si="4"/>
         <v>15.049999999999955</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="19">
         <f t="shared" si="5"/>
         <v>1.9199999999999591</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="19">
         <v>0.46999999999999886</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="19">
         <v>0.14000000000001478</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="19">
         <v>0.56999999999999318</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="19">
         <v>1.2800000000000011</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="19">
         <v>0.80000000000001137</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>1.3400000000000318</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1.539999999999992</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="19">
         <v>0.30999999999998806</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="21">
         <v>2</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="19">
         <f t="shared" si="0"/>
         <v>1.260000000000133</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="19">
         <f t="shared" si="1"/>
         <v>4.5599999999999454</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="19">
         <f t="shared" si="2"/>
         <v>8.960000000000008</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="19">
         <f t="shared" si="3"/>
         <v>4.8000000000000682</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20" s="19">
         <f t="shared" si="4"/>
         <v>6.7000000000001592</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="19">
         <f t="shared" si="5"/>
         <v>6.1599999999999682</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20" s="19">
         <v>0.30999999999998806</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="19">
         <v>0.58000000000001251</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>1.6100000000000136</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="19">
         <v>0.43999999999999773</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="19">
         <v>0.48000000000001819</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>3.8199999999999932</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>-9.9999999999909051E-3</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="19">
         <v>0.17000000000000171</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="21">
         <v>2</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="19">
         <f t="shared" si="0"/>
         <v>5.2200000000001125</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="19">
         <f t="shared" si="1"/>
         <v>12.880000000000109</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="19">
         <f t="shared" si="2"/>
         <v>3.0799999999999841</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="19">
         <f t="shared" si="3"/>
         <v>2.8800000000001091</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="19">
         <f t="shared" si="4"/>
         <v>19.099999999999966</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="19">
         <f t="shared" si="5"/>
         <v>-3.999999999996362E-2</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="19">
         <v>0.17000000000000171</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="19">
         <v>0.84999999999999432</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="19">
         <v>2.0600000000000023</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="19">
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="19">
         <v>3.999999999996362E-2</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>1.8199999999999932</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>3.9999999999992042E-2</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="19">
         <v>0.47999999999998977</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="21">
         <v>2</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="19">
         <f t="shared" si="0"/>
         <v>7.6499999999999488</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="19">
         <f t="shared" si="1"/>
         <v>16.480000000000018</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="19">
         <f t="shared" si="2"/>
         <v>6.9999999999936335E-2</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="19">
         <f t="shared" si="3"/>
         <v>0.23999999999978172</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22" s="19">
         <f t="shared" si="4"/>
         <v>9.0999999999999659</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="19">
         <f t="shared" si="5"/>
         <v>0.15999999999996817</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22" s="19">
         <v>0.47999999999998977</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="19">
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="19">
         <v>5.6200000000000045</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="19">
         <v>0.40000000000000568</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="19">
         <v>0.36000000000001364</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>3.17999999999995</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="19">
         <v>0.30000000000001137</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="21">
         <v>2</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="19">
         <f t="shared" si="0"/>
         <v>0.89999999999994884</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="19">
         <f t="shared" si="1"/>
         <v>44.960000000000036</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="19">
         <f t="shared" si="2"/>
         <v>2.8000000000000398</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="19">
         <f t="shared" si="3"/>
         <v>2.1600000000000819</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23" s="19">
         <f t="shared" si="4"/>
         <v>15.89999999999975</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="19">
         <f t="shared" si="5"/>
         <v>0.39999999999997726</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="19">
         <v>0.30000000000001137</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="19">
         <v>1.0699999999999932</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="19">
         <v>2.539999999999992</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="19">
         <v>1.039999999999992</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="19">
         <v>0.31999999999999318</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>1.6899999999999977</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>2.0000000000010232E-2</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="19">
         <v>0.40000000000000568</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="21">
         <v>2</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="19">
         <f t="shared" si="0"/>
         <v>9.6299999999999386</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="19">
         <f t="shared" si="1"/>
         <v>20.319999999999936</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="19">
         <f t="shared" si="2"/>
         <v>7.2799999999999443</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="19">
         <f t="shared" si="3"/>
         <v>1.9199999999999591</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="19">
         <f t="shared" si="4"/>
         <v>8.4499999999999886</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="19">
         <f t="shared" si="5"/>
         <v>8.0000000000040927E-2</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="19">
         <v>0.40000000000000568</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="19">
         <v>3.3199999999999932</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="19">
         <v>1.3599999999999852</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="19">
         <v>0.80000000000001137</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="19">
         <v>3.0000000000029559E-2</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>3.5400000000000205</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>0.17000000000001592</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="19">
         <v>0.53000000000000114</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="19">
         <f t="shared" si="0"/>
         <v>29.879999999999939</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="19">
         <f t="shared" si="1"/>
         <v>10.879999999999882</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="19">
         <f t="shared" si="2"/>
         <v>5.6000000000000796</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="19">
         <f t="shared" si="3"/>
         <v>0.18000000000017735</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="19">
         <f t="shared" si="4"/>
         <v>17.700000000000102</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="19">
         <f t="shared" si="5"/>
         <v>0.68000000000006366</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25" s="19">
         <v>0.53000000000000114</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="19">
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="19">
         <v>2.539999999999992</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="19">
         <v>0.86999999999997613</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="19">
         <v>0.77000000000003865</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>1.5799999999999841</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>0.28000000000000114</v>
       </c>
-      <c r="H26" s="18">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20">
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21">
         <v>2</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="19">
         <f t="shared" si="0"/>
         <v>8.9999999999918145E-2</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="19">
         <f t="shared" si="1"/>
         <v>20.319999999999936</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="19">
         <f t="shared" si="2"/>
         <v>6.0899999999998329</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="19">
         <f t="shared" si="3"/>
         <v>4.6200000000002319</v>
       </c>
-      <c r="P26" s="18">
+      <c r="P26" s="19">
         <f t="shared" si="4"/>
         <v>7.8999999999999204</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="19">
         <f t="shared" si="5"/>
         <v>1.1200000000000045</v>
       </c>
-      <c r="R26" s="18">
-        <v>0</v>
-      </c>
-      <c r="S26" s="20">
+      <c r="R26" s="19">
+        <v>0</v>
+      </c>
+      <c r="S26" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="19">
         <v>0.93999999999999773</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="19">
         <v>1.9699999999999989</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="19">
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="19">
         <v>0.85000000000002274</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>2.1000000000000227</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>6.9999999999993179E-2</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="19">
         <v>0.15000000000000568</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="21">
         <v>3</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="19">
         <f t="shared" si="0"/>
         <v>8.4599999999999795</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="19">
         <f t="shared" si="1"/>
         <v>15.759999999999991</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="19">
         <f t="shared" si="2"/>
         <v>6.9999999999936335E-2</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="19">
         <f t="shared" si="3"/>
         <v>5.1000000000001364</v>
       </c>
-      <c r="P27" s="18">
+      <c r="P27" s="19">
         <f t="shared" si="4"/>
         <v>10.500000000000114</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="19">
         <f t="shared" si="5"/>
         <v>0.27999999999997272</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R27" s="19">
         <v>0.15000000000000568</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S27" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="19">
         <v>3.6299999999999955</v>
       </c>
-      <c r="C28" s="18">
-        <v>0</v>
-      </c>
-      <c r="D28" s="18">
+      <c r="C28" s="19">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19">
         <v>7.9999999999984084E-2</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="19">
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>0.60000000000002274</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>0.75</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="19">
         <v>0.37999999999999545</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="21">
         <v>3</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="19">
         <f t="shared" si="0"/>
         <v>32.669999999999959</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="19">
         <f t="shared" si="2"/>
         <v>0.55999999999988859</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="19">
         <f t="shared" si="3"/>
         <v>5.999999999994543E-2</v>
       </c>
-      <c r="P28" s="18">
+      <c r="P28" s="19">
         <f t="shared" si="4"/>
         <v>3.0000000000001137</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="19">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="R28" s="18">
+      <c r="R28" s="19">
         <v>0.37999999999999545</v>
       </c>
-      <c r="S28" s="20">
+      <c r="S28" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="19">
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="19">
         <v>6.0300000000000011</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="19">
         <v>0.37999999999999545</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="19">
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>0.18999999999999773</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>0.90000000000000568</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="19">
         <v>1.0000000000005116E-2</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="21">
         <v>3</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="19">
         <f t="shared" si="0"/>
         <v>0.27000000000001023</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="19">
         <f t="shared" si="1"/>
         <v>48.240000000000009</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="19">
         <f t="shared" si="2"/>
         <v>2.6599999999999682</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="19">
         <f t="shared" si="3"/>
         <v>5.999999999994543E-2</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="19">
         <f t="shared" si="4"/>
         <v>0.94999999999998863</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="19">
         <f t="shared" si="5"/>
         <v>3.6000000000000227</v>
       </c>
-      <c r="R29" s="18">
+      <c r="R29" s="19">
         <v>1.0000000000005116E-2</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S29" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="19">
         <v>2.1199999999999761</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="19">
         <v>0.86000000000001364</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="19">
         <v>0.28999999999999204</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="19">
         <v>0.25999999999999091</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>2.6700000000000159</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>0.50999999999999091</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="19">
         <v>0.26000000000000512</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="21">
         <v>3</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="19">
         <f t="shared" si="0"/>
         <v>19.079999999999785</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="19">
         <f t="shared" si="1"/>
         <v>6.8800000000001091</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="19">
         <f t="shared" si="2"/>
         <v>2.0299999999999443</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="19">
         <f t="shared" si="3"/>
         <v>1.5599999999999454</v>
       </c>
-      <c r="P30" s="18">
+      <c r="P30" s="19">
         <f t="shared" si="4"/>
         <v>13.35000000000008</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="19">
         <f t="shared" si="5"/>
         <v>2.0399999999999636</v>
       </c>
-      <c r="R30" s="18">
+      <c r="R30" s="19">
         <v>0.26000000000000512</v>
       </c>
-      <c r="S30" s="20">
+      <c r="S30" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="19">
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="19">
         <v>0.18999999999999773</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="19">
         <v>0.71999999999999886</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="19">
         <v>0.15999999999996817</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>2.2400000000000091</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>0.12000000000000455</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="19">
         <v>0.38000000000000966</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="21">
         <v>3</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="19">
         <f t="shared" si="0"/>
         <v>0.89999999999994884</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="19">
         <f t="shared" si="1"/>
         <v>1.5199999999999818</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="19">
         <f t="shared" si="2"/>
         <v>5.039999999999992</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="19">
         <f t="shared" si="3"/>
         <v>0.95999999999980901</v>
       </c>
-      <c r="P31" s="18">
+      <c r="P31" s="19">
         <f t="shared" si="4"/>
         <v>11.200000000000045</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="19">
         <f t="shared" si="5"/>
         <v>0.48000000000001819</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="19">
         <v>0.38000000000000966</v>
       </c>
-      <c r="S31" s="20">
+      <c r="S31" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="19">
         <v>0.15000000000000568</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="19">
         <v>1.0900000000000034</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="19">
         <v>1.4699999999999989</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="19">
         <v>0.10000000000002274</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>1.2400000000000091</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1.4099999999999966</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="19">
         <v>0.32999999999999829</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="21">
         <v>3</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="K32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="19">
         <f t="shared" si="0"/>
         <v>1.3500000000000512</v>
       </c>
-      <c r="M32" s="18">
+      <c r="M32" s="19">
         <f t="shared" si="1"/>
         <v>8.7200000000000273</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="19">
         <f t="shared" si="2"/>
         <v>10.289999999999992</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="19">
         <f t="shared" si="3"/>
         <v>0.60000000000013642</v>
       </c>
-      <c r="P32" s="18">
+      <c r="P32" s="19">
         <f t="shared" si="4"/>
         <v>6.2000000000000455</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="19">
         <f t="shared" si="5"/>
         <v>5.6399999999999864</v>
       </c>
-      <c r="R32" s="18">
+      <c r="R32" s="19">
         <v>0.32999999999999829</v>
       </c>
-      <c r="S32" s="20">
+      <c r="S32" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="19">
         <v>0.11000000000001364</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="19">
         <v>2.8199999999999932</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="19">
         <v>0.71000000000000796</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="19">
         <v>0.51999999999998181</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>2.0699999999999932</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>-3.0000000000001137E-2</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="19">
         <v>6.9999999999993179E-2</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="21">
         <v>3</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="19">
         <f t="shared" si="0"/>
         <v>0.99000000000012278</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="19">
         <f t="shared" si="1"/>
         <v>22.559999999999945</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="19">
         <f t="shared" si="2"/>
         <v>4.9700000000000557</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="19">
         <f t="shared" si="3"/>
         <v>3.1199999999998909</v>
       </c>
-      <c r="P33" s="18">
+      <c r="P33" s="19">
         <f t="shared" si="4"/>
         <v>10.349999999999966</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="19">
         <f t="shared" si="5"/>
         <v>-0.12000000000000455</v>
       </c>
-      <c r="R33" s="18">
+      <c r="R33" s="19">
         <v>6.9999999999993179E-2</v>
       </c>
-      <c r="S33" s="20">
+      <c r="S33" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="19">
         <v>0.46000000000000796</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="19">
         <v>2.3299999999999841</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="19">
         <v>4.0000000000020464E-2</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="19">
         <v>-2.0000000000038654E-2</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>1.75</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>9.9999999999994316E-2</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="19">
         <v>0.26000000000000512</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="21">
         <v>3</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="19">
         <f t="shared" si="0"/>
         <v>4.1400000000000716</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="19">
         <f t="shared" si="1"/>
         <v>18.639999999999873</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="19">
         <f t="shared" si="2"/>
         <v>0.28000000000014325</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="19">
         <f t="shared" si="3"/>
         <v>-0.12000000000023192</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="19">
         <f t="shared" si="4"/>
         <v>8.75</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="19">
         <f t="shared" si="5"/>
         <v>0.39999999999997726</v>
       </c>
-      <c r="R34" s="18">
+      <c r="R34" s="19">
         <v>0.26000000000000512</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S34" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="19">
         <v>7.9999999999984084E-2</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="19">
         <v>5.8400000000000034</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="19">
         <v>1.4499999999999886</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="19">
         <v>0.55000000000001137</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>1.2900000000000205</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>3.9999999999992042E-2</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="19">
         <v>0.3399999999999892</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="21">
         <v>3</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="19">
         <f t="shared" si="0"/>
         <v>0.71999999999985675</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="19">
         <f t="shared" si="1"/>
         <v>46.720000000000027</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="19">
         <f t="shared" si="2"/>
         <v>10.14999999999992</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="19">
         <f t="shared" si="3"/>
         <v>3.3000000000000682</v>
       </c>
-      <c r="P35" s="18">
+      <c r="P35" s="19">
         <f t="shared" si="4"/>
         <v>6.4500000000001023</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="19">
         <f t="shared" si="5"/>
         <v>0.15999999999996817</v>
       </c>
-      <c r="R35" s="18">
+      <c r="R35" s="19">
         <v>0.3399999999999892</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="19">
         <v>0.18999999999999773</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="19">
         <v>3.0300000000000011</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="19">
         <v>0.89999999999997726</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="19">
         <v>0.12999999999999545</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>2.4399999999999977</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>0.28999999999999204</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="19">
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="21">
         <v>3</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="19">
         <f t="shared" si="0"/>
         <v>1.7099999999999795</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="19">
         <f t="shared" si="1"/>
         <v>24.240000000000009</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="19">
         <f t="shared" si="2"/>
         <v>6.2999999999998408</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="19">
         <f t="shared" si="3"/>
         <v>0.77999999999997272</v>
       </c>
-      <c r="P36" s="18">
+      <c r="P36" s="19">
         <f t="shared" si="4"/>
         <v>12.199999999999989</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="19">
         <f t="shared" si="5"/>
         <v>1.1599999999999682</v>
       </c>
-      <c r="R36" s="18">
+      <c r="R36" s="19">
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="S36" s="20">
+      <c r="S36" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="19">
         <v>3.7900000000000205</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="19">
         <v>1.1900000000000261</v>
       </c>
-      <c r="D37" s="18">
-        <v>0</v>
-      </c>
-      <c r="E37" s="18">
+      <c r="D37" s="19">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
         <v>0.29999999999995453</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>1.6999999999999886</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>-8.0000000000012506E-2</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="19">
         <v>0.25</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="21">
         <v>3</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="K37" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="19">
         <f t="shared" si="0"/>
         <v>34.110000000000184</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="19">
         <f t="shared" si="1"/>
         <v>9.5200000000002092</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="19">
         <f t="shared" si="3"/>
         <v>1.7999999999997272</v>
       </c>
-      <c r="P37" s="18">
+      <c r="P37" s="19">
         <f t="shared" si="4"/>
         <v>8.4999999999999432</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q37" s="19">
         <f t="shared" si="5"/>
         <v>-0.32000000000005002</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="19">
         <v>0.25</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S37" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="1">
@@ -5772,10 +7628,10 @@
       <c r="H38" s="1" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="22">
         <v>3</v>
       </c>
-      <c r="K38" s="19" t="s">
+      <c r="K38" s="20" t="s">
         <v>13</v>
       </c>
       <c r="L38" s="1">
@@ -5805,7 +7661,7 @@
       <c r="R38" s="1" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38" s="22">
         <v>3</v>
       </c>
     </row>
@@ -5813,6 +7669,2178 @@
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB6CDF5-91C2-3643-B646-69B061F0E330}">
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.2099999999999795</v>
+      </c>
+      <c r="C3">
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="D3">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="E3">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="F3">
+        <v>1.4700000000000273</v>
+      </c>
+      <c r="G3">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f>B3*9</f>
+        <v>10.889999999999816</v>
+      </c>
+      <c r="M3">
+        <f>C3*8</f>
+        <v>9.5999999999999091</v>
+      </c>
+      <c r="N3">
+        <f>D3*7</f>
+        <v>0.84000000000003183</v>
+      </c>
+      <c r="O3">
+        <f>E3*6</f>
+        <v>2.2799999999999727</v>
+      </c>
+      <c r="P3">
+        <f>F3*5</f>
+        <v>7.3500000000001364</v>
+      </c>
+      <c r="Q3">
+        <f>G3*4</f>
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="R3">
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.3199999999999932</v>
+      </c>
+      <c r="C4">
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="D4">
+        <v>0.44000000000002615</v>
+      </c>
+      <c r="E4">
+        <v>7.9999999999984084E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="G4">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.48000000000000398</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L26" si="0">B4*9</f>
+        <v>20.879999999999939</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M26" si="1">C4*8</f>
+        <v>3.1999999999998181</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N26" si="2">D4*7</f>
+        <v>3.080000000000183</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O26" si="3">E4*6</f>
+        <v>0.4799999999999045</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P26" si="4">F4*5</f>
+        <v>4.0000000000000568</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q26" si="5">G4*4</f>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="R4">
+        <v>0.48000000000000398</v>
+      </c>
+      <c r="S4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.75</v>
+      </c>
+      <c r="D5">
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="E5">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="G5">
+        <v>0.42000000000001592</v>
+      </c>
+      <c r="H5">
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.45000000000010232</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.4700000000000557</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0.30000000000006821</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>1.6800000000000637</v>
+      </c>
+      <c r="R5">
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="C6">
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="D6">
+        <v>0.40999999999999659</v>
+      </c>
+      <c r="E6">
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="F6">
+        <v>1.4700000000000273</v>
+      </c>
+      <c r="G6">
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="H6">
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>19.799999999999898</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>4.2400000000000091</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>2.8699999999999761</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>3.4199999999999591</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>7.3500000000001364</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="R6">
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.16999999999998749</v>
+      </c>
+      <c r="D7">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="E7">
+        <v>9.9999999999965894E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.6200000000000045</v>
+      </c>
+      <c r="G7">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="H7">
+        <v>0.36999999999999034</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.89999999999994884</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1.3599999999999</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.35000000000007958</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.59999999999979536</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>8.1000000000000227</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>3.999999999996362E-2</v>
+      </c>
+      <c r="R7">
+        <v>0.36999999999999034</v>
+      </c>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2.9999999999972715E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="D8">
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="E8">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.51000000000004775</v>
+      </c>
+      <c r="G8">
+        <v>0.87000000000000455</v>
+      </c>
+      <c r="H8">
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.26999999999975444</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>3.0399999999999636</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>3.0799999999999841</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.36000000000001364</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>2.5500000000002387</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>3.4800000000000182</v>
+      </c>
+      <c r="R8">
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="S8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="D9">
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.5199999999999818</v>
+      </c>
+      <c r="G9">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="H9">
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.35999999999992838</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>8.4800000000000182</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>-6.9999999999936335E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0.30000000000006821</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>7.5999999999999091</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="R9">
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="S9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="C10">
+        <v>2.9500000000000171</v>
+      </c>
+      <c r="D10">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.0000000000038654E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>5.1299999999999386</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>23.600000000000136</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.13999999999987267</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.12000000000023192</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>3.2499999999998863</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="S10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="C11">
+        <v>5.9200000000000159</v>
+      </c>
+      <c r="D11">
+        <v>0.73000000000001819</v>
+      </c>
+      <c r="E11">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.77999999999997272</v>
+      </c>
+      <c r="G11">
+        <v>0.26999999999998181</v>
+      </c>
+      <c r="H11">
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.54000000000002046</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>47.360000000000127</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>5.1100000000001273</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0.41999999999995907</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>3.8999999999998636</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>1.0799999999999272</v>
+      </c>
+      <c r="R11">
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.41999999999998749</v>
+      </c>
+      <c r="C12">
+        <v>3.2599999999999909</v>
+      </c>
+      <c r="D12">
+        <v>0.26999999999998181</v>
+      </c>
+      <c r="E12">
+        <v>0.47999999999996135</v>
+      </c>
+      <c r="F12">
+        <v>0.43000000000000682</v>
+      </c>
+      <c r="G12">
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>3.7799999999998875</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>26.079999999999927</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>1.8899999999998727</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>2.8799999999997681</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>2.1500000000000341</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0.79999999999995453</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.2000000000000171</v>
+      </c>
+      <c r="C13">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="G13">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>10.800000000000153</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0.55999999999994543</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>1.3299999999999841</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.30000000000006821</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>8.4999999999999432</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>0.36000000000001364</v>
+      </c>
+      <c r="R13">
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.82999999999998408</v>
+      </c>
+      <c r="D14">
+        <v>1.4199999999999875</v>
+      </c>
+      <c r="E14">
+        <v>0.27999999999997272</v>
+      </c>
+      <c r="F14">
+        <v>0.22999999999996135</v>
+      </c>
+      <c r="G14">
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="H14">
+        <v>0.33000000000001251</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>6.6399999999998727</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>9.9399999999999125</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>1.6799999999998363</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>1.1499999999998067</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>1.0399999999999636</v>
+      </c>
+      <c r="R14">
+        <v>0.33000000000001251</v>
+      </c>
+      <c r="S14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.11000000000001364</v>
+      </c>
+      <c r="C15">
+        <v>1.0199999999999818</v>
+      </c>
+      <c r="D15">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="E15">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.57999999999998408</v>
+      </c>
+      <c r="G15">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0.99000000000012278</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>8.1599999999998545</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>6.9999999999936335E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0.41999999999995907</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>2.8999999999999204</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>3.999999999996362E-2</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="D16">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.19000000000001194</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.16000000000008185</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>6.9999999999936335E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.19000000000001194</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4.9999999999982947E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.8799999999999955</v>
+      </c>
+      <c r="D17">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.9999999999954525E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.81000000000000227</v>
+      </c>
+      <c r="G17">
+        <v>0.87000000000000455</v>
+      </c>
+      <c r="H17">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0.44999999999984652</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>23.039999999999964</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0.48999999999995225</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>0.29999999999972715</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>4.0500000000000114</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>3.4800000000000182</v>
+      </c>
+      <c r="R17">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1.0100000000000193</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="E18">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="F18">
+        <v>0.76000000000004775</v>
+      </c>
+      <c r="G18">
+        <v>0.29999999999998295</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>9.0900000000001739</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>2.1700000000000159</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>0.72000000000002728</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>3.8000000000002387</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>1.1999999999999318</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="C19">
+        <v>1.0000000000019327E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.70000000000001705</v>
+      </c>
+      <c r="E19">
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="F19">
+        <v>2.1800000000000068</v>
+      </c>
+      <c r="G19">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>2.5200000000000102</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>8.0000000000154614E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>4.9000000000001194</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>1.4400000000000546</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>10.900000000000034</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>7.999999999992724E-2</v>
+      </c>
+      <c r="R19">
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="S19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>4.9999999999982947E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.64000000000001478</v>
+      </c>
+      <c r="E20">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="F20">
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="G20">
+        <v>1.5300000000000011</v>
+      </c>
+      <c r="H20">
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0.44999999999984652</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>4.4800000000001035</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>5.999999999994543E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999432</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>6.1200000000000045</v>
+      </c>
+      <c r="R20">
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="S20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>4.9999999999982947E-2</v>
+      </c>
+      <c r="C21">
+        <v>2.0800000000000125</v>
+      </c>
+      <c r="D21">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.15999999999996817</v>
+      </c>
+      <c r="F21">
+        <v>1.9399999999999977</v>
+      </c>
+      <c r="G21">
+        <v>-1.0000000000019327E-2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0.44999999999984652</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>16.6400000000001</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.13999999999987267</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>0.95999999999980901</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>9.6999999999999886</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>-4.0000000000077307E-2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>1.3700000000000045</v>
+      </c>
+      <c r="C22">
+        <v>4.8299999999999841</v>
+      </c>
+      <c r="D22">
+        <v>-2.0000000000010232E-2</v>
+      </c>
+      <c r="E22">
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="F22">
+        <v>0.87999999999999545</v>
+      </c>
+      <c r="G22">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.3399999999999892</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>12.330000000000041</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>38.639999999999873</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>-0.14000000000007162</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>-5.999999999994543E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>4.3999999999999773</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="R22">
+        <v>0.3399999999999892</v>
+      </c>
+      <c r="S22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.5800000000000125</v>
+      </c>
+      <c r="D23">
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="E23">
+        <v>8.9999999999974989E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="G23">
+        <v>5.9999999999973852E-2</v>
+      </c>
+      <c r="H23">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>12.6400000000001</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0.14000000000007162</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>0.53999999999984993</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>2.5499999999999545</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>0.23999999999989541</v>
+      </c>
+      <c r="R23">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="C24">
+        <v>1.25</v>
+      </c>
+      <c r="D24">
+        <v>1.0000000000047748E-2</v>
+      </c>
+      <c r="E24">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="F24">
+        <v>1.1800000000000068</v>
+      </c>
+      <c r="G24">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="H24">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>7.0000000000334239E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>5.999999999994543E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>5.9000000000000341</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="R24">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="S24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>1.4400000000000261</v>
+      </c>
+      <c r="C25">
+        <v>0.14000000000001478</v>
+      </c>
+      <c r="D25">
+        <v>4.9999999999982947E-2</v>
+      </c>
+      <c r="E25">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="F25">
+        <v>1.4200000000000159</v>
+      </c>
+      <c r="G25">
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>12.960000000000235</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>1.1200000000001182</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0.34999999999988063</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>5.999999999994543E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>7.1000000000000796</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>0.15999999999996817</v>
+      </c>
+      <c r="R25">
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="S25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="D26">
+        <v>2.6100000000000136</v>
+      </c>
+      <c r="E26">
+        <v>0.28999999999996362</v>
+      </c>
+      <c r="F26">
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="G26">
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="H26">
+        <v>5.9999999999988063E-2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>11.599999999999909</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>18.270000000000095</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>1.7399999999997817</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>2.3999999999999773</v>
+      </c>
+      <c r="R26">
+        <v>5.9999999999988063E-2</v>
+      </c>
+      <c r="S26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860DD592-61D3-964A-9D33-653A76291740}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="I1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>4.6099999999999852</v>
+      </c>
+      <c r="D3">
+        <v>1.9099999999999966</v>
+      </c>
+      <c r="E3" s="35">
+        <v>3.4000000000000057</v>
+      </c>
+      <c r="F3" s="35">
+        <v>2.25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <f>C3*9</f>
+        <v>41.489999999999867</v>
+      </c>
+      <c r="L3">
+        <f>D3*4</f>
+        <v>7.6399999999999864</v>
+      </c>
+      <c r="M3">
+        <f>E3*8</f>
+        <v>27.200000000000045</v>
+      </c>
+      <c r="N3">
+        <f>F3*8</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="C4">
+        <v>2.4099999999999966</v>
+      </c>
+      <c r="D4">
+        <v>1.039999999999992</v>
+      </c>
+      <c r="E4">
+        <v>2.5199999999999818</v>
+      </c>
+      <c r="F4">
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K14" si="0">C4*9</f>
+        <v>21.689999999999969</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L14" si="1">D4*4</f>
+        <v>4.1599999999999682</v>
+      </c>
+      <c r="M4">
+        <f>E4*5</f>
+        <v>12.599999999999909</v>
+      </c>
+      <c r="N4">
+        <f>F4*5</f>
+        <v>9.7499999999999432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>1.960000000000008</v>
+      </c>
+      <c r="D5">
+        <v>1.5699999999999932</v>
+      </c>
+      <c r="E5" s="35">
+        <v>6.3199999999999932</v>
+      </c>
+      <c r="F5" s="35">
+        <v>2.4199999999999875</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>17.640000000000072</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>6.2799999999999727</v>
+      </c>
+      <c r="M5">
+        <f>E5*8</f>
+        <v>50.559999999999945</v>
+      </c>
+      <c r="N5">
+        <f>F5*8</f>
+        <v>19.3599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>4.6500000000000057</v>
+      </c>
+      <c r="D6">
+        <v>3.2000000000000171</v>
+      </c>
+      <c r="E6">
+        <v>4.6500000000000341</v>
+      </c>
+      <c r="F6">
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>41.850000000000051</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>12.800000000000068</v>
+      </c>
+      <c r="M6">
+        <f>E6*5</f>
+        <v>23.250000000000171</v>
+      </c>
+      <c r="N6">
+        <f>F6*5</f>
+        <v>7.2499999999999432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>1.4299999999999784</v>
+      </c>
+      <c r="D7">
+        <v>1.0300000000000011</v>
+      </c>
+      <c r="E7">
+        <v>2.0699999999999932</v>
+      </c>
+      <c r="F7">
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>12.869999999999806</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>4.1200000000000045</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M8" si="2">E7*5</f>
+        <v>10.349999999999966</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N8" si="3">F7*5</f>
+        <v>9.2500000000001137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="C8">
+        <v>1.7699999999999818</v>
+      </c>
+      <c r="D8">
+        <v>3.0300000000000011</v>
+      </c>
+      <c r="E8">
+        <v>3.0600000000000023</v>
+      </c>
+      <c r="F8">
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>15.929999999999836</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>12.120000000000005</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>15.300000000000011</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>5.2500000000000568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>2.4099999999999966</v>
+      </c>
+      <c r="D9">
+        <v>1.4199999999999875</v>
+      </c>
+      <c r="E9" s="35">
+        <v>6.039999999999992</v>
+      </c>
+      <c r="F9" s="35">
+        <v>2.3300000000000125</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>21.689999999999969</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>5.67999999999995</v>
+      </c>
+      <c r="M9">
+        <f>E9*8</f>
+        <v>48.319999999999936</v>
+      </c>
+      <c r="N9">
+        <f>F9*8</f>
+        <v>18.6400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>4.9199999999999875</v>
+      </c>
+      <c r="D10">
+        <v>2.0200000000000102</v>
+      </c>
+      <c r="E10" s="35">
+        <v>7.4900000000000091</v>
+      </c>
+      <c r="F10" s="35">
+        <v>5.2800000000000011</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>44.279999999999887</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>8.0800000000000409</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M12" si="4">E10*8</f>
+        <v>59.920000000000073</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N12" si="5">F10*8</f>
+        <v>42.240000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>5.4599999999999795</v>
+      </c>
+      <c r="D11">
+        <v>2.2800000000000011</v>
+      </c>
+      <c r="E11" s="35">
+        <v>8.2199999999999989</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2.3599999999999852</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>49.139999999999816</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>9.1200000000000045</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>65.759999999999991</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>18.879999999999882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>6.8400000000000034</v>
+      </c>
+      <c r="D12">
+        <v>3.2799999999999727</v>
+      </c>
+      <c r="E12" s="35">
+        <v>12.900000000000006</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2.9900000000000091</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>61.560000000000031</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>13.119999999999891</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>103.20000000000005</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>23.920000000000073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>5.2999999999999829</v>
+      </c>
+      <c r="D13">
+        <v>2.6700000000000159</v>
+      </c>
+      <c r="E13">
+        <v>5.7900000000000205</v>
+      </c>
+      <c r="F13">
+        <v>3.5400000000000205</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>47.699999999999847</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>10.680000000000064</v>
+      </c>
+      <c r="M13">
+        <f>E13*5</f>
+        <v>28.950000000000102</v>
+      </c>
+      <c r="N13">
+        <f>F13*5</f>
+        <v>17.700000000000102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>3.0600000000000023</v>
+      </c>
+      <c r="D14">
+        <v>2.7999999999999829</v>
+      </c>
+      <c r="E14" s="35">
+        <v>5.3700000000000045</v>
+      </c>
+      <c r="F14" s="35">
+        <v>2.75</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>27.54000000000002</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>11.199999999999932</v>
+      </c>
+      <c r="M14">
+        <f>E14*8</f>
+        <v>42.960000000000036</v>
+      </c>
+      <c r="N14">
+        <f>F14*8</f>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5829,16 +9857,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -5863,16 +9891,16 @@
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -6583,17 +10611,17 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -6991,26 +11019,26 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="M1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -7744,17 +11772,17 @@
     </row>
     <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -8152,26 +12180,26 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="M1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -8905,17 +12933,17 @@
     </row>
     <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -9313,26 +13341,26 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="M1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -10066,17 +14094,17 @@
     </row>
     <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -10474,26 +14502,26 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="M1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -11227,17 +15255,17 @@
     </row>
     <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -11629,32 +15657,32 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:T14"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="M1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -12388,17 +16416,17 @@
     </row>
     <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -12784,27 +16812,37 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC736C9-697B-D94F-BA9F-E018715C60BD}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="N3" sqref="N3:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="5">
         <v>0</v>
@@ -12827,8 +16865,33 @@
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2" s="7"/>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -12853,11 +16916,42 @@
       <c r="H3">
         <v>86.21</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>B3-B18</f>
+        <v>1.2099999999999795</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:T14" si="0">C3-C18</f>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>1.4700000000000273</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -12882,8 +16976,42 @@
       <c r="H4">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N14" si="1">B4-B19</f>
+        <v>2.3199999999999932</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0.44000000000002615</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>7.9999999999984084E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.48000000000000398</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -12908,8 +17036,42 @@
       <c r="H5">
         <v>88.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000796</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.42000000000001592</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -12934,8 +17096,42 @@
       <c r="H6">
         <v>84.54</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.40999999999999659</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>1.4700000000000273</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="U6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -12960,8 +17156,42 @@
       <c r="H7">
         <v>73.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.16999999999998749</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>9.9999999999965894E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>1.6200000000000045</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.36999999999999034</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -12986,8 +17216,42 @@
       <c r="H8" s="1">
         <v>83.98</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>2.9999999999972715E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0.51000000000004775</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.87000000000000455</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -13012,8 +17276,42 @@
       <c r="H9">
         <v>85.86</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>1.5199999999999818</v>
+      </c>
+      <c r="S9">
+        <f>G9-G24</f>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -13038,8 +17336,42 @@
       <c r="H10">
         <v>78.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>2.9500000000000171</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="Q10">
+        <f>E10-E25</f>
+        <v>2.0000000000038654E-2</v>
+      </c>
+      <c r="R10">
+        <f>F10-F25</f>
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -13064,8 +17396,42 @@
       <c r="H11">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>5.9200000000000159</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0.73000000000001819</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.77999999999997272</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.26999999999998181</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -13090,8 +17456,42 @@
       <c r="H12">
         <v>84.24</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0.41999999999998749</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>3.2599999999999909</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.26999999999998181</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0.47999999999996135</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0.43000000000000682</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -13116,8 +17516,42 @@
       <c r="H13">
         <v>72.930000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000171</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="S13">
+        <f>G13-G28</f>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -13142,20 +17576,54 @@
       <c r="H14">
         <v>83.65</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="M14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.82999999999998408</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1.4199999999999875</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0.27999999999997272</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0.22999999999996135</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="T14">
+        <f>H14-H29</f>
+        <v>0.33000000000001251</v>
+      </c>
+      <c r="U14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -13543,27 +18011,37 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6137C0E4-2040-E249-A058-E42BB187DBE3}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="M1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="5">
         <v>0</v>
@@ -13586,8 +18064,33 @@
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2" s="7"/>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -13612,11 +18115,42 @@
       <c r="H3">
         <v>85.47</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>B3-B18</f>
+        <v>0.11000000000001364</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:T14" si="0">C3-C18</f>
+        <v>1.0199999999999818</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>0.57999999999998408</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -13641,8 +18175,42 @@
       <c r="H4">
         <v>77.010000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N14" si="1">B4-B19</f>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.19000000000001194</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -13667,8 +18235,42 @@
       <c r="H5">
         <v>87.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>4.9999999999982947E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>2.8799999999999955</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4.9999999999954525E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0.81000000000000227</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.87000000000000455</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -13693,8 +18295,42 @@
       <c r="H6">
         <v>84.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>1.0100000000000193</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0.76000000000004775</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.29999999999998295</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -13719,8 +18355,42 @@
       <c r="H7">
         <v>71.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>1.0000000000019327E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.70000000000001705</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="R7">
+        <f>F7-F22</f>
+        <v>2.1800000000000068</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="U7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -13745,8 +18415,42 @@
       <c r="H8" s="1">
         <v>82.91</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>4.9999999999982947E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.64000000000001478</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>1.5300000000000011</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.17000000000000171</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -13771,8 +18475,42 @@
       <c r="H9">
         <v>85.47</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>4.9999999999982947E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>2.0800000000000125</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.15999999999996817</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>1.9399999999999977</v>
+      </c>
+      <c r="S9">
+        <f>G9-G24</f>
+        <v>-1.0000000000019327E-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -13797,8 +18535,42 @@
       <c r="H10">
         <v>76.819999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1.3700000000000045</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>4.8299999999999841</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000010232E-2</v>
+      </c>
+      <c r="Q10">
+        <f>E10-E25</f>
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="R10">
+        <f>F10-F25</f>
+        <v>0.87999999999999545</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.3399999999999892</v>
+      </c>
+      <c r="U10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -13823,8 +18595,42 @@
       <c r="H11">
         <v>87.63</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1.5800000000000125</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>8.9999999999974989E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>5.9999999999973852E-2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -13849,8 +18655,42 @@
       <c r="H12">
         <v>84.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>1.0000000000047748E-2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>1.1800000000000068</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -13875,8 +18715,42 @@
       <c r="H13">
         <v>71.27</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1.4400000000000261</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0.14000000000001478</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>4.9999999999982947E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>1.4200000000000159</v>
+      </c>
+      <c r="S13">
+        <f>G13-G28</f>
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="U13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -13901,20 +18775,54 @@
       <c r="H14">
         <v>82.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="M14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>2.6100000000000136</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0.28999999999996362</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="T14">
+        <f>H14-H29</f>
+        <v>5.9999999999988063E-2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -13977,7 +18885,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>227.82</v>
+        <v>222.82</v>
       </c>
       <c r="C19">
         <v>244.31</v>
@@ -14291,10 +19199,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A16:I16"/>
+    <mergeCell ref="M1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IC Test Data.xlsx
+++ b/IC Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawilson1999/Library/Mobile Documents/com~apple~CloudDocs/Psychology MA/Second Year (2022-2023)/Thesis/Thesis Analyses (IC)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE240484-1BFF-F148-A070-D75A1337C51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077BF858-E2B5-B640-9204-72CAD67D5414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="6" activeTab="15" xr2:uid="{D43C4272-D8B9-9F43-99E3-1EB0B7572171}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="35">
   <si>
     <t>Pre</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Diet</t>
+  </si>
+  <si>
+    <t>Twenty</t>
+  </si>
+  <si>
+    <t>Eighty</t>
   </si>
 </sst>
 </file>
@@ -9262,7 +9268,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9337,8 +9343,8 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
-        <v>0.2</v>
+      <c r="B3" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C3">
         <v>4.6099999999999852</v>
@@ -9355,8 +9361,8 @@
       <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="26">
-        <v>0.2</v>
+      <c r="J3" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="K3">
         <f>C3*9</f>
@@ -9379,8 +9385,8 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26">
-        <v>0.8</v>
+      <c r="B4" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>2.4099999999999966</v>
@@ -9397,8 +9403,8 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="26">
-        <v>0.8</v>
+      <c r="J4" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K14" si="0">C4*9</f>
@@ -9421,8 +9427,8 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26">
-        <v>0.2</v>
+      <c r="B5" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C5">
         <v>1.960000000000008</v>
@@ -9439,8 +9445,8 @@
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="26">
-        <v>0.2</v>
+      <c r="J5" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -9463,8 +9469,8 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26">
-        <v>0.8</v>
+      <c r="B6" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>4.6500000000000057</v>
@@ -9481,8 +9487,8 @@
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="26">
-        <v>0.8</v>
+      <c r="J6" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -9505,8 +9511,8 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26">
-        <v>0.8</v>
+      <c r="B7" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>1.4299999999999784</v>
@@ -9523,8 +9529,8 @@
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="26">
-        <v>0.8</v>
+      <c r="J7" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -9547,8 +9553,8 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="26">
-        <v>0.8</v>
+      <c r="B8" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1.7699999999999818</v>
@@ -9565,8 +9571,8 @@
       <c r="I8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="26">
-        <v>0.8</v>
+      <c r="J8" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -9589,8 +9595,8 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="26">
-        <v>0.2</v>
+      <c r="B9" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C9">
         <v>2.4099999999999966</v>
@@ -9607,8 +9613,8 @@
       <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="26">
-        <v>0.2</v>
+      <c r="J9" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
@@ -9631,8 +9637,8 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="26">
-        <v>0.2</v>
+      <c r="B10" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C10">
         <v>4.9199999999999875</v>
@@ -9649,8 +9655,8 @@
       <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="26">
-        <v>0.2</v>
+      <c r="J10" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
@@ -9673,8 +9679,8 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="26">
-        <v>0.2</v>
+      <c r="B11" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C11">
         <v>5.4599999999999795</v>
@@ -9691,8 +9697,8 @@
       <c r="I11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="26">
-        <v>0.2</v>
+      <c r="J11" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
@@ -9715,8 +9721,8 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="26">
-        <v>0.2</v>
+      <c r="B12" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C12">
         <v>6.8400000000000034</v>
@@ -9733,8 +9739,8 @@
       <c r="I12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="26">
-        <v>0.2</v>
+      <c r="J12" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
@@ -9757,8 +9763,8 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="26">
-        <v>0.8</v>
+      <c r="B13" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>5.2999999999999829</v>
@@ -9775,8 +9781,8 @@
       <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="26">
-        <v>0.8</v>
+      <c r="J13" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
@@ -9799,8 +9805,8 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="26">
-        <v>0.2</v>
+      <c r="B14" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C14">
         <v>3.0600000000000023</v>
@@ -9817,8 +9823,8 @@
       <c r="I14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="26">
-        <v>0.2</v>
+      <c r="J14" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>

--- a/IC Test Data.xlsx
+++ b/IC Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawilson1999/Library/Mobile Documents/com~apple~CloudDocs/Psychology MA/Second Year (2022-2023)/Thesis/Thesis Analyses (IC)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077BF858-E2B5-B640-9204-72CAD67D5414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3DB5CC-2D11-7F4A-83E1-30C34C181485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="6" activeTab="15" xr2:uid="{D43C4272-D8B9-9F43-99E3-1EB0B7572171}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" firstSheet="6" activeTab="15" xr2:uid="{D43C4272-D8B9-9F43-99E3-1EB0B7572171}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1 (3-27)" sheetId="1" r:id="rId1"/>
